--- a/Design/config/WorldConfig.xlsx
+++ b/Design/config/WorldConfig.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$H$46</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -765,10 +765,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -884,7 +885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>10001</v>
       </c>
@@ -933,7 +934,7 @@
         <v>283</v>
       </c>
       <c r="H6" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -959,7 +960,7 @@
         <v>173</v>
       </c>
       <c r="H7" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -985,7 +986,7 @@
         <v>211</v>
       </c>
       <c r="H8" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1144,7 +1145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10011</v>
       </c>
@@ -1170,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>10012</v>
       </c>
@@ -1196,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>10013</v>
       </c>
@@ -1274,7 +1275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>10016</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>10017</v>
       </c>
@@ -1326,7 +1327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>10018</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>10019</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>10020</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>10021</v>
       </c>
@@ -1430,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10022</v>
       </c>
@@ -1456,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>10023</v>
       </c>
@@ -1482,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>10024</v>
       </c>
@@ -1531,7 +1532,7 @@
         <v>351</v>
       </c>
       <c r="H29" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1557,7 +1558,7 @@
         <v>335</v>
       </c>
       <c r="H30" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1583,7 +1584,7 @@
         <v>253</v>
       </c>
       <c r="H31" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1609,7 +1610,7 @@
         <v>386</v>
       </c>
       <c r="H32" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1635,7 +1636,7 @@
         <v>384</v>
       </c>
       <c r="H33" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1661,7 +1662,7 @@
         <v>317</v>
       </c>
       <c r="H34" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1768,7 +1769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>10035</v>
       </c>
@@ -1794,7 +1795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>10036</v>
       </c>
@@ -1843,7 +1844,7 @@
         <v>357</v>
       </c>
       <c r="H41" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -1869,10 +1870,10 @@
         <v>280</v>
       </c>
       <c r="H42" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>10039</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>10040</v>
       </c>
@@ -1924,7 +1925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>10041</v>
       </c>
@@ -1973,14 +1974,16 @@
         <v>357</v>
       </c>
       <c r="H46" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:G5">
-    <sortState ref="A5:H12">
-      <sortCondition ref="A4:A5"/>
-    </sortState>
+  <autoFilter ref="A4:H46">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <sortState ref="A5:Q43">
     <sortCondition ref="A41"/>

--- a/Design/config/WorldConfig.xlsx
+++ b/Design/config/WorldConfig.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$H$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$P$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="125">
   <si>
     <t>序列</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -371,6 +371,70 @@
   </si>
   <si>
     <t>ForceId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业(0-999)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业(0-999)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArchGold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArchFood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArchPeople</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soldier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Secure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -765,11 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -778,10 +841,10 @@
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,8 +869,32 @@
       <c r="H1" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -832,8 +919,32 @@
       <c r="H2" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -858,8 +969,32 @@
       <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -884,8 +1019,32 @@
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>10001</v>
       </c>
@@ -910,935 +1069,1799 @@
       <c r="H5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="4">
+        <v>175</v>
+      </c>
+      <c r="J5" s="4">
+        <v>200</v>
+      </c>
+      <c r="K5" s="4">
+        <v>45000</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1800</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1800</v>
+      </c>
+      <c r="N5" s="4">
+        <v>4500</v>
+      </c>
+      <c r="O5" s="4">
+        <v>70</v>
+      </c>
+      <c r="P5" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>10002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4">
-        <v>704</v>
+        <v>425</v>
       </c>
       <c r="E6" s="4">
-        <v>613</v>
+        <v>1106</v>
       </c>
       <c r="F6" s="4">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="G6" s="4">
-        <v>283</v>
+        <v>382</v>
       </c>
       <c r="H6" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>200</v>
+      </c>
+      <c r="J6" s="4">
+        <v>150</v>
+      </c>
+      <c r="K6" s="4">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1500</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1200</v>
+      </c>
+      <c r="N6" s="4">
+        <v>6000</v>
+      </c>
+      <c r="O6" s="4">
+        <v>75</v>
+      </c>
+      <c r="P6" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>10003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D7" s="4">
-        <v>1228</v>
+        <v>641</v>
       </c>
       <c r="E7" s="4">
-        <v>514</v>
+        <v>1684</v>
       </c>
       <c r="F7" s="4">
-        <v>229</v>
+        <v>314</v>
       </c>
       <c r="G7" s="4">
-        <v>173</v>
+        <v>358</v>
       </c>
       <c r="H7" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>190</v>
+      </c>
+      <c r="J7" s="4">
+        <v>210</v>
+      </c>
+      <c r="K7" s="4">
+        <v>42000</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1700</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1900</v>
+      </c>
+      <c r="N7" s="4">
+        <v>4000</v>
+      </c>
+      <c r="O7" s="4">
+        <v>65</v>
+      </c>
+      <c r="P7" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>10004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D8" s="4">
-        <v>1229</v>
+        <v>669</v>
       </c>
       <c r="E8" s="4">
-        <v>325</v>
+        <v>1254</v>
       </c>
       <c r="F8" s="4">
-        <v>273</v>
+        <v>438</v>
       </c>
       <c r="G8" s="4">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="H8" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>275</v>
+      </c>
+      <c r="J8" s="4">
+        <v>250</v>
+      </c>
+      <c r="K8" s="4">
+        <v>70000</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2500</v>
+      </c>
+      <c r="M8" s="4">
+        <v>2200</v>
+      </c>
+      <c r="N8" s="4">
+        <v>8000</v>
+      </c>
+      <c r="O8" s="4">
+        <v>75</v>
+      </c>
+      <c r="P8" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>10005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D9" s="4">
-        <v>987</v>
+        <v>269</v>
       </c>
       <c r="E9" s="4">
-        <v>698</v>
+        <v>1295</v>
       </c>
       <c r="F9" s="4">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="G9" s="4">
-        <v>247</v>
+        <v>344</v>
       </c>
       <c r="H9" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>210</v>
+      </c>
+      <c r="J9" s="4">
+        <v>225</v>
+      </c>
+      <c r="K9" s="4">
+        <v>50000</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1900</v>
+      </c>
+      <c r="M9" s="4">
+        <v>2000</v>
+      </c>
+      <c r="N9" s="4">
+        <v>5500</v>
+      </c>
+      <c r="O9" s="4">
+        <v>70</v>
+      </c>
+      <c r="P9" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>10006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D10" s="4">
-        <v>1085</v>
+        <v>45</v>
       </c>
       <c r="E10" s="4">
-        <v>618</v>
+        <v>1555</v>
       </c>
       <c r="F10" s="4">
-        <v>398</v>
+        <v>499</v>
       </c>
       <c r="G10" s="4">
-        <v>196</v>
+        <v>345</v>
       </c>
       <c r="H10" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>150</v>
+      </c>
+      <c r="J10" s="4">
+        <v>175</v>
+      </c>
+      <c r="K10" s="4">
+        <v>35000</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1200</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1500</v>
+      </c>
+      <c r="N10" s="4">
+        <v>3500</v>
+      </c>
+      <c r="O10" s="4">
+        <v>60</v>
+      </c>
+      <c r="P10" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D11" s="4">
-        <v>789</v>
+        <v>40</v>
       </c>
       <c r="E11" s="4">
-        <v>1022</v>
+        <v>1203</v>
       </c>
       <c r="F11" s="4">
-        <v>261</v>
+        <v>378</v>
       </c>
       <c r="G11" s="4">
-        <v>177</v>
+        <v>437</v>
       </c>
       <c r="H11" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>350</v>
+      </c>
+      <c r="J11" s="4">
+        <v>375</v>
+      </c>
+      <c r="K11" s="4">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="4">
+        <v>3500</v>
+      </c>
+      <c r="M11" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N11" s="4">
+        <v>10000</v>
+      </c>
+      <c r="O11" s="4">
+        <v>85</v>
+      </c>
+      <c r="P11" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D12" s="4">
-        <v>1027</v>
+        <v>42</v>
       </c>
       <c r="E12" s="4">
-        <v>940</v>
+        <v>1646</v>
       </c>
       <c r="F12" s="4">
-        <v>273</v>
+        <v>444</v>
       </c>
       <c r="G12" s="4">
-        <v>231</v>
+        <v>395</v>
       </c>
       <c r="H12" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>125</v>
+      </c>
+      <c r="J12" s="4">
+        <v>150</v>
+      </c>
+      <c r="K12" s="4">
+        <v>30000</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1300</v>
+      </c>
+      <c r="N12" s="4">
+        <v>3000</v>
+      </c>
+      <c r="O12" s="4">
+        <v>55</v>
+      </c>
+      <c r="P12" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D13" s="4">
-        <v>640</v>
+        <v>43</v>
       </c>
       <c r="E13" s="4">
-        <v>1080</v>
+        <v>1004</v>
       </c>
       <c r="F13" s="4">
-        <v>305</v>
+        <v>506</v>
       </c>
       <c r="G13" s="4">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="H13" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>225</v>
+      </c>
+      <c r="J13" s="4">
+        <v>200</v>
+      </c>
+      <c r="K13" s="4">
+        <v>48000</v>
+      </c>
+      <c r="L13" s="4">
+        <v>2000</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1800</v>
+      </c>
+      <c r="N13" s="4">
+        <v>6500</v>
+      </c>
+      <c r="O13" s="4">
+        <v>75</v>
+      </c>
+      <c r="P13" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>10010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D14" s="4">
-        <v>493</v>
+        <v>145</v>
       </c>
       <c r="E14" s="4">
-        <v>909</v>
+        <v>770</v>
       </c>
       <c r="F14" s="4">
-        <v>241</v>
+        <v>348</v>
       </c>
       <c r="G14" s="4">
-        <v>233</v>
+        <v>311</v>
       </c>
       <c r="H14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>250</v>
+      </c>
+      <c r="J14" s="4">
+        <v>225</v>
+      </c>
+      <c r="K14" s="4">
+        <v>60000</v>
+      </c>
+      <c r="L14" s="4">
+        <v>2200</v>
+      </c>
+      <c r="M14" s="4">
+        <v>2000</v>
+      </c>
+      <c r="N14" s="4">
+        <v>8500</v>
+      </c>
+      <c r="O14" s="4">
+        <v>80</v>
+      </c>
+      <c r="P14" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4">
-        <v>425</v>
+        <v>987</v>
       </c>
       <c r="E15" s="4">
-        <v>1106</v>
+        <v>698</v>
       </c>
       <c r="F15" s="4">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G15" s="4">
-        <v>382</v>
+        <v>247</v>
       </c>
       <c r="H15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>300</v>
+      </c>
+      <c r="J15" s="4">
+        <v>275</v>
+      </c>
+      <c r="K15" s="4">
+        <v>75000</v>
+      </c>
+      <c r="L15" s="4">
+        <v>2800</v>
+      </c>
+      <c r="M15" s="4">
+        <v>2500</v>
+      </c>
+      <c r="N15" s="4">
+        <v>9000</v>
+      </c>
+      <c r="O15" s="4">
+        <v>80</v>
+      </c>
+      <c r="P15" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>10012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D16" s="4">
-        <v>641</v>
+        <v>1085</v>
       </c>
       <c r="E16" s="4">
-        <v>1684</v>
+        <v>618</v>
       </c>
       <c r="F16" s="4">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="G16" s="4">
-        <v>358</v>
+        <v>196</v>
       </c>
       <c r="H16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>275</v>
+      </c>
+      <c r="J16" s="4">
+        <v>250</v>
+      </c>
+      <c r="K16" s="4">
+        <v>65000</v>
+      </c>
+      <c r="L16" s="4">
+        <v>2600</v>
+      </c>
+      <c r="M16" s="4">
+        <v>2300</v>
+      </c>
+      <c r="N16" s="4">
+        <v>8000</v>
+      </c>
+      <c r="O16" s="4">
+        <v>75</v>
+      </c>
+      <c r="P16" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>10013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D17" s="4">
-        <v>837</v>
+        <v>789</v>
       </c>
       <c r="E17" s="4">
-        <v>1693</v>
+        <v>1022</v>
       </c>
       <c r="F17" s="4">
-        <v>432</v>
+        <v>261</v>
       </c>
       <c r="G17" s="4">
-        <v>348</v>
+        <v>177</v>
       </c>
       <c r="H17" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>225</v>
+      </c>
+      <c r="J17" s="4">
+        <v>210</v>
+      </c>
+      <c r="K17" s="4">
+        <v>50000</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1800</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1700</v>
+      </c>
+      <c r="N17" s="4">
+        <v>6000</v>
+      </c>
+      <c r="O17" s="4">
+        <v>70</v>
+      </c>
+      <c r="P17" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>10014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D18" s="4">
-        <v>932</v>
+        <v>1027</v>
       </c>
       <c r="E18" s="4">
-        <v>868</v>
+        <v>940</v>
       </c>
       <c r="F18" s="4">
-        <v>325</v>
+        <v>273</v>
       </c>
       <c r="G18" s="4">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="H18" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="4">
+        <v>260</v>
+      </c>
+      <c r="J18" s="4">
+        <v>290</v>
+      </c>
+      <c r="K18" s="4">
+        <v>68000</v>
+      </c>
+      <c r="L18" s="4">
+        <v>2400</v>
+      </c>
+      <c r="M18" s="4">
+        <v>2600</v>
+      </c>
+      <c r="N18" s="4">
+        <v>7500</v>
+      </c>
+      <c r="O18" s="4">
+        <v>75</v>
+      </c>
+      <c r="P18" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>10015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D19" s="4">
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="E19" s="4">
-        <v>851</v>
+        <v>1080</v>
       </c>
       <c r="F19" s="4">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="G19" s="4">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="H19" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="4">
+        <v>325</v>
+      </c>
+      <c r="J19" s="4">
+        <v>300</v>
+      </c>
+      <c r="K19" s="4">
+        <v>80000</v>
+      </c>
+      <c r="L19" s="4">
+        <v>3000</v>
+      </c>
+      <c r="M19" s="4">
+        <v>2800</v>
+      </c>
+      <c r="N19" s="4">
+        <v>9500</v>
+      </c>
+      <c r="O19" s="4">
+        <v>85</v>
+      </c>
+      <c r="P19" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>10016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D20" s="4">
-        <v>1257</v>
+        <v>493</v>
       </c>
       <c r="E20" s="4">
-        <v>1046</v>
+        <v>909</v>
       </c>
       <c r="F20" s="4">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="G20" s="4">
-        <v>341</v>
+        <v>233</v>
       </c>
       <c r="H20" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="I20" s="4">
+        <v>200</v>
+      </c>
+      <c r="J20" s="4">
+        <v>190</v>
+      </c>
+      <c r="K20" s="4">
+        <v>45000</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1600</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1600</v>
+      </c>
+      <c r="N20" s="4">
+        <v>5000</v>
+      </c>
+      <c r="O20" s="4">
+        <v>65</v>
+      </c>
+      <c r="P20" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>10017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D21" s="4">
-        <v>1505</v>
+        <v>932</v>
       </c>
       <c r="E21" s="4">
-        <v>1194</v>
+        <v>868</v>
       </c>
       <c r="F21" s="4">
-        <v>506</v>
+        <v>325</v>
       </c>
       <c r="G21" s="4">
-        <v>413</v>
+        <v>208</v>
       </c>
       <c r="H21" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="I21" s="4">
+        <v>375</v>
+      </c>
+      <c r="J21" s="4">
+        <v>350</v>
+      </c>
+      <c r="K21" s="4">
+        <v>85000</v>
+      </c>
+      <c r="L21" s="4">
+        <v>3500</v>
+      </c>
+      <c r="M21" s="4">
+        <v>3200</v>
+      </c>
+      <c r="N21" s="4">
+        <v>11000</v>
+      </c>
+      <c r="O21" s="4">
+        <v>90</v>
+      </c>
+      <c r="P21" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>10018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D22" s="4">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E22" s="4">
-        <v>1254</v>
+        <v>851</v>
       </c>
       <c r="F22" s="4">
-        <v>438</v>
+        <v>276</v>
       </c>
       <c r="G22" s="4">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="H22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="I22" s="4">
+        <v>290</v>
+      </c>
+      <c r="J22" s="4">
+        <v>275</v>
+      </c>
+      <c r="K22" s="4">
+        <v>70000</v>
+      </c>
+      <c r="L22" s="4">
+        <v>2700</v>
+      </c>
+      <c r="M22" s="4">
+        <v>2400</v>
+      </c>
+      <c r="N22" s="4">
+        <v>8500</v>
+      </c>
+      <c r="O22" s="4">
+        <v>80</v>
+      </c>
+      <c r="P22" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>10019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D23" s="4">
-        <v>269</v>
+        <v>1441</v>
       </c>
       <c r="E23" s="4">
-        <v>1295</v>
+        <v>494</v>
       </c>
       <c r="F23" s="4">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="G23" s="4">
-        <v>344</v>
+        <v>213</v>
       </c>
       <c r="H23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>250</v>
+      </c>
+      <c r="J23" s="4">
+        <v>240</v>
+      </c>
+      <c r="K23" s="4">
+        <v>60000</v>
+      </c>
+      <c r="L23" s="4">
+        <v>2300</v>
+      </c>
+      <c r="M23" s="4">
+        <v>2200</v>
+      </c>
+      <c r="N23" s="4">
+        <v>7000</v>
+      </c>
+      <c r="O23" s="4">
+        <v>70</v>
+      </c>
+      <c r="P23" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>10020</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D24" s="4">
-        <v>45</v>
+        <v>1279</v>
       </c>
       <c r="E24" s="4">
-        <v>1555</v>
+        <v>701</v>
       </c>
       <c r="F24" s="4">
-        <v>499</v>
+        <v>248</v>
       </c>
       <c r="G24" s="4">
-        <v>345</v>
+        <v>193</v>
       </c>
       <c r="H24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="4">
+        <v>240</v>
+      </c>
+      <c r="J24" s="4">
+        <v>225</v>
+      </c>
+      <c r="K24" s="4">
+        <v>55000</v>
+      </c>
+      <c r="L24" s="4">
+        <v>2100</v>
+      </c>
+      <c r="M24" s="4">
+        <v>2000</v>
+      </c>
+      <c r="N24" s="4">
+        <v>6500</v>
+      </c>
+      <c r="O24" s="4">
+        <v>70</v>
+      </c>
+      <c r="P24" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>10021</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="D25" s="4">
-        <v>40</v>
+        <v>1457</v>
       </c>
       <c r="E25" s="4">
-        <v>1203</v>
+        <v>672</v>
       </c>
       <c r="F25" s="4">
-        <v>378</v>
+        <v>286</v>
       </c>
       <c r="G25" s="4">
-        <v>437</v>
+        <v>297</v>
       </c>
       <c r="H25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4">
+        <v>275</v>
+      </c>
+      <c r="J25" s="4">
+        <v>260</v>
+      </c>
+      <c r="K25" s="4">
+        <v>65000</v>
+      </c>
+      <c r="L25" s="4">
+        <v>2500</v>
+      </c>
+      <c r="M25" s="4">
+        <v>2300</v>
+      </c>
+      <c r="N25" s="4">
+        <v>8000</v>
+      </c>
+      <c r="O25" s="4">
+        <v>75</v>
+      </c>
+      <c r="P25" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D26" s="4">
-        <v>42</v>
+        <v>1264</v>
       </c>
       <c r="E26" s="4">
-        <v>1646</v>
+        <v>876</v>
       </c>
       <c r="F26" s="4">
-        <v>444</v>
+        <v>297</v>
       </c>
       <c r="G26" s="4">
-        <v>395</v>
+        <v>248</v>
       </c>
       <c r="H26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="I26" s="4">
+        <v>290</v>
+      </c>
+      <c r="J26" s="4">
+        <v>300</v>
+      </c>
+      <c r="K26" s="4">
+        <v>72000</v>
+      </c>
+      <c r="L26" s="4">
+        <v>2600</v>
+      </c>
+      <c r="M26" s="4">
+        <v>2700</v>
+      </c>
+      <c r="N26" s="4">
+        <v>8500</v>
+      </c>
+      <c r="O26" s="4">
+        <v>80</v>
+      </c>
+      <c r="P26" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>10023</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D27" s="4">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="E27" s="4">
-        <v>1004</v>
+        <v>1693</v>
       </c>
       <c r="F27" s="4">
-        <v>506</v>
+        <v>432</v>
       </c>
       <c r="G27" s="4">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="H27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I27" s="4">
+        <v>190</v>
+      </c>
+      <c r="J27" s="4">
+        <v>200</v>
+      </c>
+      <c r="K27" s="4">
+        <v>43000</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1600</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1800</v>
+      </c>
+      <c r="N27" s="4">
+        <v>4200</v>
+      </c>
+      <c r="O27" s="4">
+        <v>65</v>
+      </c>
+      <c r="P27" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>10024</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D28" s="4">
-        <v>145</v>
+        <v>1257</v>
       </c>
       <c r="E28" s="4">
-        <v>770</v>
+        <v>1046</v>
       </c>
       <c r="F28" s="4">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="G28" s="4">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="H28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I28" s="4">
+        <v>250</v>
+      </c>
+      <c r="J28" s="4">
+        <v>275</v>
+      </c>
+      <c r="K28" s="4">
+        <v>62000</v>
+      </c>
+      <c r="L28" s="4">
+        <v>2200</v>
+      </c>
+      <c r="M28" s="4">
+        <v>2500</v>
+      </c>
+      <c r="N28" s="4">
+        <v>7000</v>
+      </c>
+      <c r="O28" s="4">
+        <v>75</v>
+      </c>
+      <c r="P28" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>10025</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D29" s="4">
-        <v>370</v>
+        <v>1505</v>
       </c>
       <c r="E29" s="4">
-        <v>575</v>
+        <v>1194</v>
       </c>
       <c r="F29" s="4">
-        <v>415</v>
+        <v>506</v>
       </c>
       <c r="G29" s="4">
-        <v>351</v>
+        <v>413</v>
       </c>
       <c r="H29" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I29" s="4">
+        <v>260</v>
+      </c>
+      <c r="J29" s="4">
+        <v>250</v>
+      </c>
+      <c r="K29" s="4">
+        <v>60000</v>
+      </c>
+      <c r="L29" s="4">
+        <v>2400</v>
+      </c>
+      <c r="M29" s="4">
+        <v>2200</v>
+      </c>
+      <c r="N29" s="4">
+        <v>6500</v>
+      </c>
+      <c r="O29" s="4">
+        <v>70</v>
+      </c>
+      <c r="P29" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>10026</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D30" s="4">
-        <v>155</v>
+        <v>949</v>
       </c>
       <c r="E30" s="4">
-        <v>412</v>
+        <v>1115</v>
       </c>
       <c r="F30" s="4">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="G30" s="4">
-        <v>335</v>
+        <v>215</v>
       </c>
       <c r="H30" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I30" s="4">
+        <v>275</v>
+      </c>
+      <c r="J30" s="4">
+        <v>260</v>
+      </c>
+      <c r="K30" s="4">
+        <v>65000</v>
+      </c>
+      <c r="L30" s="4">
+        <v>2500</v>
+      </c>
+      <c r="M30" s="4">
+        <v>2300</v>
+      </c>
+      <c r="N30" s="4">
+        <v>8000</v>
+      </c>
+      <c r="O30" s="4">
+        <v>80</v>
+      </c>
+      <c r="P30" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>10027</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D31" s="4">
-        <v>42</v>
+        <v>1617</v>
       </c>
       <c r="E31" s="4">
-        <v>623</v>
+        <v>831</v>
       </c>
       <c r="F31" s="4">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G31" s="4">
-        <v>253</v>
+        <v>404</v>
       </c>
       <c r="H31" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I31" s="4">
+        <v>340</v>
+      </c>
+      <c r="J31" s="4">
+        <v>325</v>
+      </c>
+      <c r="K31" s="4">
+        <v>82000</v>
+      </c>
+      <c r="L31" s="4">
+        <v>3200</v>
+      </c>
+      <c r="M31" s="4">
+        <v>2900</v>
+      </c>
+      <c r="N31" s="4">
+        <v>9500</v>
+      </c>
+      <c r="O31" s="4">
+        <v>85</v>
+      </c>
+      <c r="P31" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>10028</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D32" s="4">
-        <v>42</v>
+        <v>1469</v>
       </c>
       <c r="E32" s="4">
-        <v>253</v>
+        <v>925</v>
       </c>
       <c r="F32" s="4">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="G32" s="4">
-        <v>386</v>
+        <v>498</v>
       </c>
       <c r="H32" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I32" s="4">
+        <v>360</v>
+      </c>
+      <c r="J32" s="4">
+        <v>340</v>
+      </c>
+      <c r="K32" s="4">
+        <v>88000</v>
+      </c>
+      <c r="L32" s="4">
+        <v>3400</v>
+      </c>
+      <c r="M32" s="4">
+        <v>3100</v>
+      </c>
+      <c r="N32" s="4">
+        <v>10500</v>
+      </c>
+      <c r="O32" s="4">
+        <v>90</v>
+      </c>
+      <c r="P32" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>10029</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D33" s="4">
-        <v>679</v>
+        <v>1111</v>
       </c>
       <c r="E33" s="4">
-        <v>235</v>
+        <v>1265</v>
       </c>
       <c r="F33" s="4">
-        <v>498</v>
+        <v>452</v>
       </c>
       <c r="G33" s="4">
-        <v>384</v>
+        <v>503</v>
       </c>
       <c r="H33" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I33" s="4">
+        <v>300</v>
+      </c>
+      <c r="J33" s="4">
+        <v>275</v>
+      </c>
+      <c r="K33" s="4">
+        <v>70000</v>
+      </c>
+      <c r="L33" s="4">
+        <v>2800</v>
+      </c>
+      <c r="M33" s="4">
+        <v>2500</v>
+      </c>
+      <c r="N33" s="4">
+        <v>9000</v>
+      </c>
+      <c r="O33" s="4">
+        <v>85</v>
+      </c>
+      <c r="P33" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>10030</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="4">
+        <v>928</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1440</v>
+      </c>
+      <c r="F34" s="4">
+        <v>379</v>
+      </c>
+      <c r="G34" s="4">
+        <v>323</v>
+      </c>
+      <c r="H34" s="4">
+        <v>3</v>
+      </c>
+      <c r="I34" s="4">
+        <v>290</v>
+      </c>
+      <c r="J34" s="4">
+        <v>310</v>
+      </c>
+      <c r="K34" s="4">
+        <v>75000</v>
+      </c>
+      <c r="L34" s="4">
+        <v>2700</v>
+      </c>
+      <c r="M34" s="4">
+        <v>2800</v>
+      </c>
+      <c r="N34" s="4">
+        <v>8500</v>
+      </c>
+      <c r="O34" s="4">
+        <v>80</v>
+      </c>
+      <c r="P34" s="4">
         <v>75</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1351</v>
-      </c>
-      <c r="E34" s="4">
-        <v>54</v>
-      </c>
-      <c r="F34" s="4">
-        <v>288</v>
-      </c>
-      <c r="G34" s="4">
-        <v>317</v>
-      </c>
-      <c r="H34" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>10031</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D35" s="4">
-        <v>1441</v>
+        <v>1228</v>
       </c>
       <c r="E35" s="4">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="F35" s="4">
-        <v>341</v>
+        <v>229</v>
       </c>
       <c r="G35" s="4">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="H35" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I35" s="4">
+        <v>240</v>
+      </c>
+      <c r="J35" s="4">
+        <v>260</v>
+      </c>
+      <c r="K35" s="4">
+        <v>58000</v>
+      </c>
+      <c r="L35" s="4">
+        <v>2200</v>
+      </c>
+      <c r="M35" s="4">
+        <v>2300</v>
+      </c>
+      <c r="N35" s="4">
+        <v>7000</v>
+      </c>
+      <c r="O35" s="4">
+        <v>70</v>
+      </c>
+      <c r="P35" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>10032</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1229</v>
+      </c>
+      <c r="E36" s="4">
+        <v>325</v>
+      </c>
+      <c r="F36" s="4">
+        <v>273</v>
+      </c>
+      <c r="G36" s="4">
+        <v>211</v>
+      </c>
+      <c r="H36" s="4">
+        <v>4</v>
+      </c>
+      <c r="I36" s="4">
+        <v>300</v>
+      </c>
+      <c r="J36" s="4">
+        <v>290</v>
+      </c>
+      <c r="K36" s="4">
+        <v>72000</v>
+      </c>
+      <c r="L36" s="4">
+        <v>2800</v>
+      </c>
+      <c r="M36" s="4">
+        <v>2600</v>
+      </c>
+      <c r="N36" s="4">
+        <v>9000</v>
+      </c>
+      <c r="O36" s="4">
         <v>80</v>
       </c>
-      <c r="D36" s="4">
-        <v>1279</v>
-      </c>
-      <c r="E36" s="4">
-        <v>701</v>
-      </c>
-      <c r="F36" s="4">
-        <v>248</v>
-      </c>
-      <c r="G36" s="4">
-        <v>193</v>
-      </c>
-      <c r="H36" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="P36" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>10033</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D37" s="4">
-        <v>1457</v>
+        <v>679</v>
       </c>
       <c r="E37" s="4">
-        <v>672</v>
+        <v>235</v>
       </c>
       <c r="F37" s="4">
-        <v>286</v>
+        <v>498</v>
       </c>
       <c r="G37" s="4">
-        <v>297</v>
+        <v>384</v>
       </c>
       <c r="H37" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I37" s="4">
+        <v>225</v>
+      </c>
+      <c r="J37" s="4">
+        <v>200</v>
+      </c>
+      <c r="K37" s="4">
+        <v>50000</v>
+      </c>
+      <c r="L37" s="4">
+        <v>2000</v>
+      </c>
+      <c r="M37" s="4">
+        <v>1800</v>
+      </c>
+      <c r="N37" s="4">
+        <v>7500</v>
+      </c>
+      <c r="O37" s="4">
+        <v>75</v>
+      </c>
+      <c r="P37" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>10034</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D38" s="4">
-        <v>1264</v>
+        <v>1351</v>
       </c>
       <c r="E38" s="4">
-        <v>876</v>
+        <v>54</v>
       </c>
       <c r="F38" s="4">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="G38" s="4">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="H38" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I38" s="4">
+        <v>210</v>
+      </c>
+      <c r="J38" s="4">
+        <v>225</v>
+      </c>
+      <c r="K38" s="4">
+        <v>52000</v>
+      </c>
+      <c r="L38" s="4">
+        <v>1900</v>
+      </c>
+      <c r="M38" s="4">
+        <v>2000</v>
+      </c>
+      <c r="N38" s="4">
+        <v>8000</v>
+      </c>
+      <c r="O38" s="4">
+        <v>80</v>
+      </c>
+      <c r="P38" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>10035</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="4">
+        <v>902</v>
+      </c>
+      <c r="E39" s="4">
+        <v>356</v>
+      </c>
+      <c r="F39" s="4">
+        <v>336</v>
+      </c>
+      <c r="G39" s="4">
+        <v>357</v>
+      </c>
+      <c r="H39" s="4">
+        <v>4</v>
+      </c>
+      <c r="I39" s="4">
+        <v>350</v>
+      </c>
+      <c r="J39" s="4">
+        <v>325</v>
+      </c>
+      <c r="K39" s="4">
+        <v>85000</v>
+      </c>
+      <c r="L39" s="4">
+        <v>3300</v>
+      </c>
+      <c r="M39" s="4">
+        <v>2900</v>
+      </c>
+      <c r="N39" s="4">
+        <v>11000</v>
+      </c>
+      <c r="O39" s="4">
         <v>85</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="4">
-        <v>949</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1115</v>
-      </c>
-      <c r="F39" s="4">
-        <v>377</v>
-      </c>
-      <c r="G39" s="4">
-        <v>215</v>
-      </c>
-      <c r="H39" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P39" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>10036</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D40" s="4">
-        <v>1617</v>
+        <v>980</v>
       </c>
       <c r="E40" s="4">
-        <v>831</v>
+        <v>105</v>
       </c>
       <c r="F40" s="4">
-        <v>314</v>
+        <v>397</v>
       </c>
       <c r="G40" s="4">
-        <v>404</v>
+        <v>280</v>
       </c>
       <c r="H40" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I40" s="4">
+        <v>250</v>
+      </c>
+      <c r="J40" s="4">
+        <v>240</v>
+      </c>
+      <c r="K40" s="4">
+        <v>60000</v>
+      </c>
+      <c r="L40" s="4">
+        <v>2300</v>
+      </c>
+      <c r="M40" s="4">
+        <v>2200</v>
+      </c>
+      <c r="N40" s="4">
+        <v>8500</v>
+      </c>
+      <c r="O40" s="4">
+        <v>80</v>
+      </c>
+      <c r="P40" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>10037</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D41" s="4">
-        <v>902</v>
+        <v>1558</v>
       </c>
       <c r="E41" s="4">
-        <v>356</v>
+        <v>13</v>
       </c>
       <c r="F41" s="4">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="G41" s="4">
         <v>357</v>
@@ -1846,144 +2869,286 @@
       <c r="H41" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="4">
+        <v>175</v>
+      </c>
+      <c r="J41" s="4">
+        <v>190</v>
+      </c>
+      <c r="K41" s="4">
+        <v>40000</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1500</v>
+      </c>
+      <c r="M41" s="4">
+        <v>1700</v>
+      </c>
+      <c r="N41" s="4">
+        <v>6000</v>
+      </c>
+      <c r="O41" s="4">
+        <v>70</v>
+      </c>
+      <c r="P41" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>10038</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D42" s="4">
-        <v>980</v>
+        <v>704</v>
       </c>
       <c r="E42" s="4">
-        <v>105</v>
+        <v>613</v>
       </c>
       <c r="F42" s="4">
-        <v>397</v>
+        <v>328</v>
       </c>
       <c r="G42" s="4">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H42" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I42" s="4">
+        <v>400</v>
+      </c>
+      <c r="J42" s="4">
+        <v>375</v>
+      </c>
+      <c r="K42" s="4">
+        <v>95000</v>
+      </c>
+      <c r="L42" s="4">
+        <v>4000</v>
+      </c>
+      <c r="M42" s="4">
+        <v>3500</v>
+      </c>
+      <c r="N42" s="4">
+        <v>12000</v>
+      </c>
+      <c r="O42" s="4">
+        <v>95</v>
+      </c>
+      <c r="P42" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>10039</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D43" s="4">
-        <v>1469</v>
+        <v>370</v>
       </c>
       <c r="E43" s="4">
-        <v>925</v>
+        <v>575</v>
       </c>
       <c r="F43" s="4">
-        <v>277</v>
+        <v>415</v>
       </c>
       <c r="G43" s="4">
-        <v>498</v>
+        <v>351</v>
       </c>
       <c r="H43" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I43" s="4">
+        <v>390</v>
+      </c>
+      <c r="J43" s="4">
+        <v>350</v>
+      </c>
+      <c r="K43" s="4">
+        <v>90000</v>
+      </c>
+      <c r="L43" s="4">
+        <v>3800</v>
+      </c>
+      <c r="M43" s="4">
+        <v>3200</v>
+      </c>
+      <c r="N43" s="4">
+        <v>11500</v>
+      </c>
+      <c r="O43" s="4">
+        <v>90</v>
+      </c>
+      <c r="P43" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>10040</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="D44" s="4">
-        <v>1111</v>
+        <v>155</v>
       </c>
       <c r="E44" s="4">
-        <v>1265</v>
+        <v>412</v>
       </c>
       <c r="F44" s="4">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="G44" s="4">
-        <v>503</v>
+        <v>335</v>
       </c>
       <c r="H44" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I44" s="4">
+        <v>200</v>
+      </c>
+      <c r="J44" s="4">
+        <v>210</v>
+      </c>
+      <c r="K44" s="4">
+        <v>48000</v>
+      </c>
+      <c r="L44" s="4">
+        <v>1800</v>
+      </c>
+      <c r="M44" s="4">
+        <v>1900</v>
+      </c>
+      <c r="N44" s="4">
+        <v>7000</v>
+      </c>
+      <c r="O44" s="4">
+        <v>75</v>
+      </c>
+      <c r="P44" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>10041</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D45" s="4">
-        <v>928</v>
+        <v>42</v>
       </c>
       <c r="E45" s="4">
-        <v>1440</v>
+        <v>623</v>
       </c>
       <c r="F45" s="4">
-        <v>379</v>
+        <v>322</v>
       </c>
       <c r="G45" s="4">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="H45" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I45" s="4">
+        <v>210</v>
+      </c>
+      <c r="J45" s="4">
+        <v>200</v>
+      </c>
+      <c r="K45" s="4">
+        <v>50000</v>
+      </c>
+      <c r="L45" s="4">
+        <v>1900</v>
+      </c>
+      <c r="M45" s="4">
+        <v>1800</v>
+      </c>
+      <c r="N45" s="4">
+        <v>7500</v>
+      </c>
+      <c r="O45" s="4">
+        <v>75</v>
+      </c>
+      <c r="P45" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>10042</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D46" s="4">
-        <v>1558</v>
+        <v>42</v>
       </c>
       <c r="E46" s="4">
-        <v>13</v>
+        <v>253</v>
       </c>
       <c r="F46" s="4">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="G46" s="4">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="H46" s="4">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="I46" s="4">
+        <v>150</v>
+      </c>
+      <c r="J46" s="4">
+        <v>160</v>
+      </c>
+      <c r="K46" s="4">
+        <v>35000</v>
+      </c>
+      <c r="L46" s="4">
+        <v>1300</v>
+      </c>
+      <c r="M46" s="4">
+        <v>1400</v>
+      </c>
+      <c r="N46" s="4">
+        <v>6500</v>
+      </c>
+      <c r="O46" s="4">
+        <v>70</v>
+      </c>
+      <c r="P46" s="4">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H46">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A4:P4">
+    <sortState ref="A5:P46">
+      <sortCondition ref="H4"/>
+    </sortState>
   </autoFilter>
   <sortState ref="A5:Q43">
     <sortCondition ref="A41"/>

--- a/Design/config/WorldConfig.xlsx
+++ b/Design/config/WorldConfig.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="257">
   <si>
     <t>序列</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -66,14 +66,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>启动色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>cs</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -225,216 +217,674 @@
     <t>zitong</t>
   </si>
   <si>
+    <t>hanzhong</t>
+  </si>
+  <si>
+    <t>汉中</t>
+  </si>
+  <si>
+    <t>changan</t>
+  </si>
+  <si>
+    <t>长安</t>
+  </si>
+  <si>
+    <t>anding</t>
+  </si>
+  <si>
+    <t>安定</t>
+  </si>
+  <si>
+    <t>tianshui</t>
+  </si>
+  <si>
+    <t>天水</t>
+  </si>
+  <si>
+    <t>wuwei</t>
+  </si>
+  <si>
+    <t>武威</t>
+  </si>
+  <si>
+    <t>jinyang</t>
+  </si>
+  <si>
+    <t>晋阳</t>
+  </si>
+  <si>
+    <t>beiping</t>
+  </si>
+  <si>
+    <t>北平</t>
+  </si>
+  <si>
+    <t>beihai</t>
+  </si>
+  <si>
+    <t>北海</t>
+  </si>
+  <si>
+    <t>xiaopei</t>
+  </si>
+  <si>
+    <t>小沛</t>
+  </si>
+  <si>
+    <t>xiapi</t>
+  </si>
+  <si>
+    <t>下邳</t>
+  </si>
+  <si>
+    <t>shouchun</t>
+  </si>
+  <si>
+    <t>寿春</t>
+  </si>
+  <si>
+    <t>jiangxia</t>
+  </si>
+  <si>
+    <t>江夏</t>
+  </si>
+  <si>
+    <t>wu</t>
+  </si>
+  <si>
+    <t>吴</t>
+  </si>
+  <si>
+    <t>ye</t>
+  </si>
+  <si>
+    <t>邺</t>
+  </si>
+  <si>
+    <t>ji</t>
+  </si>
+  <si>
+    <t>jianye</t>
+  </si>
+  <si>
+    <t>建业</t>
+  </si>
+  <si>
+    <t>caisang</t>
+  </si>
+  <si>
+    <t>柴桑</t>
+  </si>
+  <si>
+    <t>changsha</t>
+  </si>
+  <si>
+    <t>长沙</t>
+  </si>
+  <si>
+    <t>xiangping</t>
+  </si>
+  <si>
+    <t>襄平</t>
+  </si>
+  <si>
+    <t>Cname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>force</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业(0-999)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业(0-999)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArchGold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArchFood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArchPeople</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soldier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Secure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>梓潼</t>
-  </si>
-  <si>
-    <t>hanzhong</t>
-  </si>
-  <si>
-    <t>汉中</t>
-  </si>
-  <si>
-    <t>changan</t>
-  </si>
-  <si>
-    <t>长安</t>
-  </si>
-  <si>
-    <t>anding</t>
-  </si>
-  <si>
-    <t>安定</t>
-  </si>
-  <si>
-    <t>tianshui</t>
-  </si>
-  <si>
-    <t>天水</t>
-  </si>
-  <si>
-    <t>wuwei</t>
-  </si>
-  <si>
-    <t>武威</t>
-  </si>
-  <si>
-    <t>jinyang</t>
-  </si>
-  <si>
-    <t>晋阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太守</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leader</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Members</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101028,101033,101034</t>
+  </si>
+  <si>
+    <t>101015</t>
+  </si>
+  <si>
+    <t>101009,101022</t>
+  </si>
+  <si>
+    <t>101007</t>
+  </si>
+  <si>
+    <t>101028,101040</t>
+  </si>
+  <si>
+    <t>101014</t>
+  </si>
+  <si>
+    <t>101030,101024</t>
+  </si>
+  <si>
+    <t>101005</t>
+  </si>
+  <si>
+    <t>101006,101032,101037</t>
+  </si>
+  <si>
+    <t>101018</t>
+  </si>
+  <si>
+    <t>101039,101036</t>
+  </si>
+  <si>
+    <t>101016</t>
+  </si>
+  <si>
+    <t>101035,101039</t>
+  </si>
+  <si>
+    <t>100001</t>
+  </si>
+  <si>
+    <t>101039</t>
+  </si>
+  <si>
+    <t>101035</t>
+  </si>
+  <si>
+    <t>101033</t>
+  </si>
+  <si>
+    <t>101020,101011</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>101010,101026,101038</t>
+  </si>
+  <si>
+    <t>102012</t>
+  </si>
+  <si>
+    <t>102028,102024</t>
+  </si>
+  <si>
+    <t>102015</t>
+  </si>
+  <si>
+    <t>102022,102032</t>
+  </si>
+  <si>
+    <t>102016</t>
+  </si>
+  <si>
+    <t>102038</t>
+  </si>
+  <si>
+    <t>102006</t>
+  </si>
+  <si>
+    <t>102031,102034</t>
+  </si>
+  <si>
+    <t>102008</t>
+  </si>
+  <si>
+    <t>102010,102023,102042</t>
+  </si>
+  <si>
+    <t>102035</t>
+  </si>
+  <si>
+    <t>102036</t>
+  </si>
+  <si>
+    <t>100002</t>
+  </si>
+  <si>
+    <t>102001,102003,102029,102037,102041</t>
+  </si>
+  <si>
+    <t>102002</t>
+  </si>
+  <si>
+    <t>102014,102040</t>
+  </si>
+  <si>
+    <t>102009</t>
+  </si>
+  <si>
+    <t>102027</t>
+  </si>
+  <si>
+    <t>102011</t>
+  </si>
+  <si>
+    <t>102013</t>
+  </si>
+  <si>
+    <t>102004</t>
+  </si>
+  <si>
+    <t>102005,102020</t>
+  </si>
+  <si>
+    <t>102007</t>
+  </si>
+  <si>
+    <t>102017,102021</t>
+  </si>
+  <si>
+    <t>103024</t>
+  </si>
+  <si>
+    <t>103019,103038</t>
+  </si>
+  <si>
+    <t>103003</t>
+  </si>
+  <si>
+    <t>103009,103034</t>
+  </si>
+  <si>
+    <t>103026</t>
+  </si>
+  <si>
+    <t>103027,103033</t>
+  </si>
+  <si>
+    <t>103004</t>
+  </si>
+  <si>
+    <t>103018,103032</t>
+  </si>
+  <si>
+    <t>103012</t>
+  </si>
+  <si>
+    <t>103025,103013,103016,103017</t>
+  </si>
+  <si>
+    <t>100003</t>
+  </si>
+  <si>
+    <t>103008,103010,103011,103014,103028</t>
+  </si>
+  <si>
+    <t>103007</t>
+  </si>
+  <si>
+    <t>103006,103021,103035</t>
+  </si>
+  <si>
+    <t>103005</t>
+  </si>
+  <si>
+    <t>103020,103022,103029</t>
+  </si>
+  <si>
+    <t>106001</t>
+  </si>
+  <si>
+    <t>106002,106005</t>
+  </si>
+  <si>
+    <t>106003</t>
+  </si>
+  <si>
+    <t>106007,106008</t>
+  </si>
+  <si>
+    <t>106004</t>
+  </si>
+  <si>
+    <t>106006</t>
+  </si>
+  <si>
+    <t>110001</t>
+  </si>
+  <si>
+    <t>100006</t>
+  </si>
+  <si>
+    <t>106003,106007,106008</t>
+  </si>
+  <si>
+    <t>110005</t>
+  </si>
+  <si>
+    <t>110010</t>
+  </si>
+  <si>
+    <t>100004</t>
+  </si>
+  <si>
+    <t>104002,104007,104008,104009</t>
+  </si>
+  <si>
+    <t>104001</t>
+  </si>
+  <si>
+    <t>104003,104004,104005,104006,104010</t>
+  </si>
+  <si>
+    <t>101003</t>
+  </si>
+  <si>
+    <t>101011</t>
+  </si>
+  <si>
+    <t>110002</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>view位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewPrefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chengdu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>beiping</t>
-  </si>
-  <si>
-    <t>北平</t>
-  </si>
-  <si>
-    <t>beihai</t>
-  </si>
-  <si>
-    <t>北海</t>
-  </si>
-  <si>
-    <t>xiaopei</t>
-  </si>
-  <si>
-    <t>小沛</t>
-  </si>
-  <si>
-    <t>xiapi</t>
-  </si>
-  <si>
-    <t>下邳</t>
-  </si>
-  <si>
-    <t>shouchun</t>
-  </si>
-  <si>
-    <t>寿春</t>
-  </si>
-  <si>
-    <t>jiangxia</t>
-  </si>
-  <si>
-    <t>江夏</t>
-  </si>
-  <si>
-    <t>wu</t>
-  </si>
-  <si>
-    <t>吴</t>
-  </si>
-  <si>
-    <t>ye</t>
-  </si>
-  <si>
-    <t>邺</t>
-  </si>
-  <si>
-    <t>ji</t>
-  </si>
-  <si>
-    <t>蓟</t>
-  </si>
-  <si>
-    <t>jianye</t>
-  </si>
-  <si>
-    <t>建业</t>
-  </si>
-  <si>
-    <t>caisang</t>
-  </si>
-  <si>
-    <t>柴桑</t>
-  </si>
-  <si>
-    <t>changsha</t>
-  </si>
-  <si>
-    <t>长沙</t>
-  </si>
-  <si>
-    <t>xiangping</t>
-  </si>
-  <si>
-    <t>襄平</t>
-  </si>
-  <si>
-    <t>Cname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Width</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Height</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>force</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForceId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业(0-999)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业(0-999)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>食物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>士兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>治安</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArchGold</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArchFood</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArchPeople</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gold</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Food</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soldier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Secure</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相邻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldNearIds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>10021,10025,10028</t>
+  </si>
+  <si>
+    <t>10036,10037,10032</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10031,10035,10034,10036</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003,10002,10004,10005,10030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,10004,10005,10009,10015,10016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,10023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10001,10015,10026,10029,10030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10006,10007,10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10005,10007,10008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10007,10010,10016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10009,10016,10039,10041</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10012,10022,10017,10038,10020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10011,10019,10020,10031,10035</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10015,10018,10014,10017,10026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10004,10013,10016,10018,10026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10009,10010,10015,10018,10039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10016,10013,10015,10017,10038,10039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10012,10021,10031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10011,10012,10021,10022</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10022,10019,10020,10027,10028</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10014,10011,10020,10021,10024,10026,10028</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003,10030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10022,10026,10028,10029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10027,10028,10029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10022,10024,10025,10027,10029,10021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004,10024,10026,10028,10030,10025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,10004,10023,10029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10035,10038,10039,10036</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10032,10035,10033,10034</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010,10033,10038,10040,10016,10018</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10042,10039,10041</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010,10040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10041,10040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10012,10032,10033,10031,10036,10038</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10005,10006,10009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004,10015,10022,10024,10029,10013,10014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10013,10026,10017,10022,10024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10018,10033,10035,10039,10011,10017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10011,10014,10013,10018,10038</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10012,10019,10035,10032</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -535,7 +985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="255" wrapText="1"/>
@@ -547,6 +997,10 @@
       <alignment horizontal="left" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -829,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:AP48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -842,9 +1296,12 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="6" width="9.5" customWidth="1"/>
     <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="18" max="18" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.375" customWidth="1"/>
+    <col min="20" max="20" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -852,49 +1309,61 @@
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -902,49 +1371,61 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -993,8 +1474,20 @@
       <c r="P3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1005,13 +1498,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>5</v>
@@ -1043,16 +1536,28 @@
       <c r="P4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>10001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4">
         <v>630</v>
@@ -1076,7 +1581,7 @@
         <v>200</v>
       </c>
       <c r="K5" s="4">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="L5" s="4">
         <v>1800</v>
@@ -1085,7 +1590,7 @@
         <v>1800</v>
       </c>
       <c r="N5" s="4">
-        <v>4500</v>
+        <v>2250</v>
       </c>
       <c r="O5" s="4">
         <v>70</v>
@@ -1093,16 +1598,28 @@
       <c r="P5" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>10002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4">
         <v>425</v>
@@ -1126,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="K6" s="4">
-        <v>40000</v>
+        <v>13300</v>
       </c>
       <c r="L6" s="4">
         <v>1500</v>
@@ -1135,7 +1652,7 @@
         <v>1200</v>
       </c>
       <c r="N6" s="4">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O6" s="4">
         <v>75</v>
@@ -1143,16 +1660,28 @@
       <c r="P6" s="4">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>10003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4">
         <v>641</v>
@@ -1176,7 +1705,7 @@
         <v>210</v>
       </c>
       <c r="K7" s="4">
-        <v>42000</v>
+        <v>14000</v>
       </c>
       <c r="L7" s="4">
         <v>1700</v>
@@ -1185,7 +1714,7 @@
         <v>1900</v>
       </c>
       <c r="N7" s="4">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="O7" s="4">
         <v>65</v>
@@ -1193,16 +1722,30 @@
       <c r="P7" s="4">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>10004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="4">
         <v>669</v>
@@ -1226,7 +1769,7 @@
         <v>250</v>
       </c>
       <c r="K8" s="4">
-        <v>70000</v>
+        <v>23300</v>
       </c>
       <c r="L8" s="4">
         <v>2500</v>
@@ -1235,7 +1778,7 @@
         <v>2200</v>
       </c>
       <c r="N8" s="4">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O8" s="4">
         <v>75</v>
@@ -1243,16 +1786,30 @@
       <c r="P8" s="4">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>10005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="4">
         <v>269</v>
@@ -1276,7 +1833,7 @@
         <v>225</v>
       </c>
       <c r="K9" s="4">
-        <v>50000</v>
+        <v>16600</v>
       </c>
       <c r="L9" s="4">
         <v>1900</v>
@@ -1285,7 +1842,7 @@
         <v>2000</v>
       </c>
       <c r="N9" s="4">
-        <v>5500</v>
+        <v>2750</v>
       </c>
       <c r="O9" s="4">
         <v>70</v>
@@ -1293,16 +1850,30 @@
       <c r="P9" s="4">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>10006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="4">
         <v>45</v>
@@ -1326,7 +1897,7 @@
         <v>175</v>
       </c>
       <c r="K10" s="4">
-        <v>35000</v>
+        <v>11600</v>
       </c>
       <c r="L10" s="4">
         <v>1200</v>
@@ -1335,7 +1906,7 @@
         <v>1500</v>
       </c>
       <c r="N10" s="4">
-        <v>3500</v>
+        <v>1750</v>
       </c>
       <c r="O10" s="4">
         <v>60</v>
@@ -1343,16 +1914,30 @@
       <c r="P10" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="4">
         <v>40</v>
@@ -1376,7 +1961,7 @@
         <v>375</v>
       </c>
       <c r="K11" s="4">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="L11" s="4">
         <v>3500</v>
@@ -1385,7 +1970,7 @@
         <v>4000</v>
       </c>
       <c r="N11" s="4">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O11" s="4">
         <v>85</v>
@@ -1393,16 +1978,30 @@
       <c r="P11" s="4">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="4">
         <v>42</v>
@@ -1426,7 +2025,7 @@
         <v>150</v>
       </c>
       <c r="K12" s="4">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="L12" s="4">
         <v>1000</v>
@@ -1435,7 +2034,7 @@
         <v>1300</v>
       </c>
       <c r="N12" s="4">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="O12" s="4">
         <v>55</v>
@@ -1443,16 +2042,30 @@
       <c r="P12" s="4">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="D13" s="4">
         <v>43</v>
@@ -1476,7 +2089,7 @@
         <v>200</v>
       </c>
       <c r="K13" s="4">
-        <v>48000</v>
+        <v>16000</v>
       </c>
       <c r="L13" s="4">
         <v>2000</v>
@@ -1485,7 +2098,7 @@
         <v>1800</v>
       </c>
       <c r="N13" s="4">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="O13" s="4">
         <v>75</v>
@@ -1493,16 +2106,30 @@
       <c r="P13" s="4">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>10010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D14" s="4">
         <v>145</v>
@@ -1526,7 +2153,7 @@
         <v>225</v>
       </c>
       <c r="K14" s="4">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="L14" s="4">
         <v>2200</v>
@@ -1535,7 +2162,7 @@
         <v>2000</v>
       </c>
       <c r="N14" s="4">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="O14" s="4">
         <v>80</v>
@@ -1543,16 +2170,30 @@
       <c r="P14" s="4">
         <v>85</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="4">
         <v>987</v>
@@ -1576,7 +2217,7 @@
         <v>275</v>
       </c>
       <c r="K15" s="4">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="L15" s="4">
         <v>2800</v>
@@ -1585,7 +2226,7 @@
         <v>2500</v>
       </c>
       <c r="N15" s="4">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O15" s="4">
         <v>80</v>
@@ -1593,16 +2234,30 @@
       <c r="P15" s="4">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>10012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="4">
         <v>1085</v>
@@ -1626,7 +2281,7 @@
         <v>250</v>
       </c>
       <c r="K16" s="4">
-        <v>65000</v>
+        <v>21600</v>
       </c>
       <c r="L16" s="4">
         <v>2600</v>
@@ -1635,7 +2290,7 @@
         <v>2300</v>
       </c>
       <c r="N16" s="4">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O16" s="4">
         <v>75</v>
@@ -1643,16 +2298,30 @@
       <c r="P16" s="4">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>10013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="4">
         <v>789</v>
@@ -1676,7 +2345,7 @@
         <v>210</v>
       </c>
       <c r="K17" s="4">
-        <v>50000</v>
+        <v>16600</v>
       </c>
       <c r="L17" s="4">
         <v>1800</v>
@@ -1685,7 +2354,7 @@
         <v>1700</v>
       </c>
       <c r="N17" s="4">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O17" s="4">
         <v>70</v>
@@ -1693,16 +2362,30 @@
       <c r="P17" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>10014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D18" s="4">
         <v>1027</v>
@@ -1726,7 +2409,7 @@
         <v>290</v>
       </c>
       <c r="K18" s="4">
-        <v>68000</v>
+        <v>22600</v>
       </c>
       <c r="L18" s="4">
         <v>2400</v>
@@ -1735,7 +2418,7 @@
         <v>2600</v>
       </c>
       <c r="N18" s="4">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="O18" s="4">
         <v>75</v>
@@ -1743,16 +2426,30 @@
       <c r="P18" s="4">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>10015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" s="4">
         <v>640</v>
@@ -1776,7 +2473,7 @@
         <v>300</v>
       </c>
       <c r="K19" s="4">
-        <v>80000</v>
+        <v>26600</v>
       </c>
       <c r="L19" s="4">
         <v>3000</v>
@@ -1785,7 +2482,7 @@
         <v>2800</v>
       </c>
       <c r="N19" s="4">
-        <v>9500</v>
+        <v>4750</v>
       </c>
       <c r="O19" s="4">
         <v>85</v>
@@ -1793,16 +2490,30 @@
       <c r="P19" s="4">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>10016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="4">
         <v>493</v>
@@ -1826,7 +2537,7 @@
         <v>190</v>
       </c>
       <c r="K20" s="4">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="L20" s="4">
         <v>1600</v>
@@ -1835,7 +2546,7 @@
         <v>1600</v>
       </c>
       <c r="N20" s="4">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="O20" s="4">
         <v>65</v>
@@ -1843,16 +2554,30 @@
       <c r="P20" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>10017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="4">
         <v>932</v>
@@ -1876,7 +2601,7 @@
         <v>350</v>
       </c>
       <c r="K21" s="4">
-        <v>85000</v>
+        <v>28300</v>
       </c>
       <c r="L21" s="4">
         <v>3500</v>
@@ -1885,7 +2610,7 @@
         <v>3200</v>
       </c>
       <c r="N21" s="4">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="O21" s="4">
         <v>90</v>
@@ -1893,16 +2618,30 @@
       <c r="P21" s="4">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>10018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" s="4">
         <v>670</v>
@@ -1926,7 +2665,7 @@
         <v>275</v>
       </c>
       <c r="K22" s="4">
-        <v>70000</v>
+        <v>23300</v>
       </c>
       <c r="L22" s="4">
         <v>2700</v>
@@ -1935,7 +2674,7 @@
         <v>2400</v>
       </c>
       <c r="N22" s="4">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="O22" s="4">
         <v>80</v>
@@ -1943,16 +2682,30 @@
       <c r="P22" s="4">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>10019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D23" s="4">
         <v>1441</v>
@@ -1976,7 +2729,7 @@
         <v>240</v>
       </c>
       <c r="K23" s="4">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="L23" s="4">
         <v>2300</v>
@@ -1985,7 +2738,7 @@
         <v>2200</v>
       </c>
       <c r="N23" s="4">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O23" s="4">
         <v>70</v>
@@ -1993,16 +2746,30 @@
       <c r="P23" s="4">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>10020</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D24" s="4">
         <v>1279</v>
@@ -2026,7 +2793,7 @@
         <v>225</v>
       </c>
       <c r="K24" s="4">
-        <v>55000</v>
+        <v>18300</v>
       </c>
       <c r="L24" s="4">
         <v>2100</v>
@@ -2035,7 +2802,7 @@
         <v>2000</v>
       </c>
       <c r="N24" s="4">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="O24" s="4">
         <v>70</v>
@@ -2043,16 +2810,30 @@
       <c r="P24" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>10021</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D25" s="4">
         <v>1457</v>
@@ -2076,7 +2857,7 @@
         <v>260</v>
       </c>
       <c r="K25" s="4">
-        <v>65000</v>
+        <v>21600</v>
       </c>
       <c r="L25" s="4">
         <v>2500</v>
@@ -2085,7 +2866,7 @@
         <v>2300</v>
       </c>
       <c r="N25" s="4">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O25" s="4">
         <v>75</v>
@@ -2093,16 +2874,30 @@
       <c r="P25" s="4">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D26" s="4">
         <v>1264</v>
@@ -2126,7 +2921,7 @@
         <v>300</v>
       </c>
       <c r="K26" s="4">
-        <v>72000</v>
+        <v>24000</v>
       </c>
       <c r="L26" s="4">
         <v>2600</v>
@@ -2135,7 +2930,7 @@
         <v>2700</v>
       </c>
       <c r="N26" s="4">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="O26" s="4">
         <v>80</v>
@@ -2143,16 +2938,30 @@
       <c r="P26" s="4">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>10023</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D27" s="4">
         <v>837</v>
@@ -2176,7 +2985,7 @@
         <v>200</v>
       </c>
       <c r="K27" s="4">
-        <v>43000</v>
+        <v>14300</v>
       </c>
       <c r="L27" s="4">
         <v>1600</v>
@@ -2185,7 +2994,7 @@
         <v>1800</v>
       </c>
       <c r="N27" s="4">
-        <v>4200</v>
+        <v>2100</v>
       </c>
       <c r="O27" s="4">
         <v>65</v>
@@ -2193,16 +3002,30 @@
       <c r="P27" s="4">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>10024</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" s="4">
         <v>1257</v>
@@ -2226,7 +3049,7 @@
         <v>275</v>
       </c>
       <c r="K28" s="4">
-        <v>62000</v>
+        <v>20600</v>
       </c>
       <c r="L28" s="4">
         <v>2200</v>
@@ -2235,7 +3058,7 @@
         <v>2500</v>
       </c>
       <c r="N28" s="4">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O28" s="4">
         <v>75</v>
@@ -2243,16 +3066,30 @@
       <c r="P28" s="4">
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>10025</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D29" s="4">
         <v>1505</v>
@@ -2276,7 +3113,7 @@
         <v>250</v>
       </c>
       <c r="K29" s="4">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="L29" s="4">
         <v>2400</v>
@@ -2285,7 +3122,7 @@
         <v>2200</v>
       </c>
       <c r="N29" s="4">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="O29" s="4">
         <v>70</v>
@@ -2293,16 +3130,30 @@
       <c r="P29" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>10026</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D30" s="4">
         <v>949</v>
@@ -2326,7 +3177,7 @@
         <v>260</v>
       </c>
       <c r="K30" s="4">
-        <v>65000</v>
+        <v>21600</v>
       </c>
       <c r="L30" s="4">
         <v>2500</v>
@@ -2335,7 +3186,7 @@
         <v>2300</v>
       </c>
       <c r="N30" s="4">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O30" s="4">
         <v>80</v>
@@ -2343,16 +3194,30 @@
       <c r="P30" s="4">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="5"/>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>10027</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D31" s="4">
         <v>1617</v>
@@ -2376,7 +3241,7 @@
         <v>325</v>
       </c>
       <c r="K31" s="4">
-        <v>82000</v>
+        <v>27300</v>
       </c>
       <c r="L31" s="4">
         <v>3200</v>
@@ -2385,7 +3250,7 @@
         <v>2900</v>
       </c>
       <c r="N31" s="4">
-        <v>9500</v>
+        <v>4750</v>
       </c>
       <c r="O31" s="4">
         <v>85</v>
@@ -2393,16 +3258,30 @@
       <c r="P31" s="4">
         <v>80</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>10028</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D32" s="4">
         <v>1469</v>
@@ -2426,7 +3305,7 @@
         <v>340</v>
       </c>
       <c r="K32" s="4">
-        <v>88000</v>
+        <v>29300</v>
       </c>
       <c r="L32" s="4">
         <v>3400</v>
@@ -2435,7 +3314,7 @@
         <v>3100</v>
       </c>
       <c r="N32" s="4">
-        <v>10500</v>
+        <v>5250</v>
       </c>
       <c r="O32" s="4">
         <v>90</v>
@@ -2443,16 +3322,30 @@
       <c r="P32" s="4">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>10029</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D33" s="4">
         <v>1111</v>
@@ -2476,7 +3369,7 @@
         <v>275</v>
       </c>
       <c r="K33" s="4">
-        <v>70000</v>
+        <v>23300</v>
       </c>
       <c r="L33" s="4">
         <v>2800</v>
@@ -2485,7 +3378,7 @@
         <v>2500</v>
       </c>
       <c r="N33" s="4">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O33" s="4">
         <v>85</v>
@@ -2493,16 +3386,30 @@
       <c r="P33" s="4">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>10030</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D34" s="4">
         <v>928</v>
@@ -2526,7 +3433,7 @@
         <v>310</v>
       </c>
       <c r="K34" s="4">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="L34" s="4">
         <v>2700</v>
@@ -2535,7 +3442,7 @@
         <v>2800</v>
       </c>
       <c r="N34" s="4">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="O34" s="4">
         <v>80</v>
@@ -2543,16 +3450,30 @@
       <c r="P34" s="4">
         <v>75</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>10031</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D35" s="4">
         <v>1228</v>
@@ -2576,7 +3497,7 @@
         <v>260</v>
       </c>
       <c r="K35" s="4">
-        <v>58000</v>
+        <v>19300</v>
       </c>
       <c r="L35" s="4">
         <v>2200</v>
@@ -2585,7 +3506,7 @@
         <v>2300</v>
       </c>
       <c r="N35" s="4">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O35" s="4">
         <v>70</v>
@@ -2593,16 +3514,30 @@
       <c r="P35" s="4">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="S35" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>10032</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D36" s="4">
         <v>1229</v>
@@ -2626,7 +3561,7 @@
         <v>290</v>
       </c>
       <c r="K36" s="4">
-        <v>72000</v>
+        <v>24000</v>
       </c>
       <c r="L36" s="4">
         <v>2800</v>
@@ -2635,7 +3570,7 @@
         <v>2600</v>
       </c>
       <c r="N36" s="4">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O36" s="4">
         <v>80</v>
@@ -2643,16 +3578,30 @@
       <c r="P36" s="4">
         <v>75</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q36" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>10033</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D37" s="4">
         <v>679</v>
@@ -2676,7 +3625,7 @@
         <v>200</v>
       </c>
       <c r="K37" s="4">
-        <v>50000</v>
+        <v>16600</v>
       </c>
       <c r="L37" s="4">
         <v>2000</v>
@@ -2685,7 +3634,7 @@
         <v>1800</v>
       </c>
       <c r="N37" s="4">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="O37" s="4">
         <v>75</v>
@@ -2693,16 +3642,30 @@
       <c r="P37" s="4">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q37" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="5"/>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>10034</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D38" s="4">
         <v>1351</v>
@@ -2726,7 +3689,7 @@
         <v>225</v>
       </c>
       <c r="K38" s="4">
-        <v>52000</v>
+        <v>17300</v>
       </c>
       <c r="L38" s="4">
         <v>1900</v>
@@ -2735,7 +3698,7 @@
         <v>2000</v>
       </c>
       <c r="N38" s="4">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O38" s="4">
         <v>80</v>
@@ -2743,16 +3706,28 @@
       <c r="P38" s="4">
         <v>85</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R38" s="4"/>
+      <c r="S38" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="5"/>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>10035</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D39" s="4">
         <v>902</v>
@@ -2776,7 +3751,7 @@
         <v>325</v>
       </c>
       <c r="K39" s="4">
-        <v>85000</v>
+        <v>28300</v>
       </c>
       <c r="L39" s="4">
         <v>3300</v>
@@ -2785,7 +3760,7 @@
         <v>2900</v>
       </c>
       <c r="N39" s="4">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="O39" s="4">
         <v>85</v>
@@ -2793,16 +3768,30 @@
       <c r="P39" s="4">
         <v>90</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="5"/>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>10036</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="D40" s="4">
         <v>980</v>
@@ -2826,7 +3815,7 @@
         <v>240</v>
       </c>
       <c r="K40" s="4">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="L40" s="4">
         <v>2300</v>
@@ -2835,7 +3824,7 @@
         <v>2200</v>
       </c>
       <c r="N40" s="4">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="O40" s="4">
         <v>80</v>
@@ -2843,16 +3832,30 @@
       <c r="P40" s="4">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>10037</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D41" s="4">
         <v>1558</v>
@@ -2876,7 +3879,7 @@
         <v>190</v>
       </c>
       <c r="K41" s="4">
-        <v>40000</v>
+        <v>13300</v>
       </c>
       <c r="L41" s="4">
         <v>1500</v>
@@ -2885,7 +3888,7 @@
         <v>1700</v>
       </c>
       <c r="N41" s="4">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O41" s="4">
         <v>70</v>
@@ -2893,16 +3896,26 @@
       <c r="P41" s="4">
         <v>75</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="6">
+        <v>10034</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>10038</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D42" s="4">
         <v>704</v>
@@ -2926,7 +3939,7 @@
         <v>375</v>
       </c>
       <c r="K42" s="4">
-        <v>95000</v>
+        <v>31600</v>
       </c>
       <c r="L42" s="4">
         <v>4000</v>
@@ -2935,7 +3948,7 @@
         <v>3500</v>
       </c>
       <c r="N42" s="4">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O42" s="4">
         <v>95</v>
@@ -2943,16 +3956,30 @@
       <c r="P42" s="4">
         <v>95</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="S42" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="5"/>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>10039</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D43" s="4">
         <v>370</v>
@@ -2976,7 +4003,7 @@
         <v>350</v>
       </c>
       <c r="K43" s="4">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="L43" s="4">
         <v>3800</v>
@@ -2985,7 +4012,7 @@
         <v>3200</v>
       </c>
       <c r="N43" s="4">
-        <v>11500</v>
+        <v>5750</v>
       </c>
       <c r="O43" s="4">
         <v>90</v>
@@ -2993,16 +4020,30 @@
       <c r="P43" s="4">
         <v>90</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>10040</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D44" s="4">
         <v>155</v>
@@ -3026,7 +4067,7 @@
         <v>210</v>
       </c>
       <c r="K44" s="4">
-        <v>48000</v>
+        <v>16000</v>
       </c>
       <c r="L44" s="4">
         <v>1800</v>
@@ -3035,7 +4076,7 @@
         <v>1900</v>
       </c>
       <c r="N44" s="4">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O44" s="4">
         <v>75</v>
@@ -3043,16 +4084,30 @@
       <c r="P44" s="4">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="S44" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>10041</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D45" s="4">
         <v>42</v>
@@ -3076,7 +4131,7 @@
         <v>200</v>
       </c>
       <c r="K45" s="4">
-        <v>50000</v>
+        <v>16600</v>
       </c>
       <c r="L45" s="4">
         <v>1900</v>
@@ -3085,7 +4140,7 @@
         <v>1800</v>
       </c>
       <c r="N45" s="4">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="O45" s="4">
         <v>75</v>
@@ -3093,16 +4148,28 @@
       <c r="P45" s="4">
         <v>85</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="R45" s="4"/>
+      <c r="S45" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO45" s="5"/>
+      <c r="AP45" s="5"/>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>10042</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D46" s="4">
         <v>42</v>
@@ -3126,7 +4193,7 @@
         <v>160</v>
       </c>
       <c r="K46" s="4">
-        <v>35000</v>
+        <v>11600</v>
       </c>
       <c r="L46" s="4">
         <v>1300</v>
@@ -3135,7 +4202,7 @@
         <v>1400</v>
       </c>
       <c r="N46" s="4">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="O46" s="4">
         <v>70</v>
@@ -3143,13 +4210,26 @@
       <c r="P46" s="4">
         <v>80</v>
       </c>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="T46" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="5"/>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AO47" s="5"/>
+      <c r="AP47" s="5"/>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AO48" s="5"/>
+      <c r="AP48" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:P4">
-    <sortState ref="A5:P46">
-      <sortCondition ref="H4"/>
-    </sortState>
-  </autoFilter>
   <sortState ref="A5:Q43">
     <sortCondition ref="A41"/>
   </sortState>

--- a/Design/config/WorldConfig.xlsx
+++ b/Design/config/WorldConfig.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="264">
   <si>
     <t>序列</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -885,6 +885,34 @@
   </si>
   <si>
     <t>10012,10019,10035,10032</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changsha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xinye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xinye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiliang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changsha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianye</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1285,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1608,7 +1636,7 @@
         <v>220</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.2">
@@ -1670,7 +1698,7 @@
         <v>221</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.2">
@@ -1732,7 +1760,7 @@
         <v>222</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="AO7" s="5"/>
       <c r="AP7" s="5"/>
@@ -1860,7 +1888,7 @@
         <v>224</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="AO9" s="5"/>
       <c r="AP9" s="5"/>
@@ -1924,7 +1952,7 @@
         <v>225</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="AO10" s="5"/>
       <c r="AP10" s="5"/>
@@ -2052,7 +2080,7 @@
         <v>216</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
@@ -2116,7 +2144,7 @@
         <v>226</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="AO13" s="5"/>
       <c r="AP13" s="5"/>
@@ -2372,7 +2400,7 @@
         <v>230</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="AO17" s="5"/>
       <c r="AP17" s="5"/>
@@ -2436,7 +2464,7 @@
         <v>253</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="AO18" s="5"/>
       <c r="AP18" s="5"/>
@@ -2500,7 +2528,7 @@
         <v>231</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="AO19" s="5"/>
       <c r="AP19" s="5"/>
@@ -2564,7 +2592,7 @@
         <v>232</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="AO20" s="5"/>
       <c r="AP20" s="5"/>
@@ -2628,7 +2656,7 @@
         <v>255</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AO21" s="5"/>
       <c r="AP21" s="5"/>
@@ -3012,7 +3040,7 @@
         <v>238</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="AO27" s="5"/>
       <c r="AP27" s="5"/>
@@ -3140,7 +3168,7 @@
         <v>240</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
@@ -3204,7 +3232,7 @@
         <v>252</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
@@ -3268,7 +3296,7 @@
         <v>217</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
@@ -3460,7 +3488,7 @@
         <v>243</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="AO34" s="5"/>
       <c r="AP34" s="5"/>
@@ -3524,7 +3552,7 @@
         <v>256</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="AO35" s="5"/>
       <c r="AP35" s="5"/>
@@ -3652,7 +3680,7 @@
         <v>244</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="AO37" s="5"/>
       <c r="AP37" s="5"/>
@@ -3778,7 +3806,7 @@
         <v>250</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AO39" s="5"/>
       <c r="AP39" s="5"/>
@@ -3842,7 +3870,7 @@
         <v>245</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AO40" s="5"/>
       <c r="AP40" s="5"/>
@@ -3966,7 +3994,7 @@
         <v>254</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AO42" s="5"/>
       <c r="AP42" s="5"/>
@@ -4030,7 +4058,7 @@
         <v>246</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AO43" s="5"/>
       <c r="AP43" s="5"/>
@@ -4094,7 +4122,7 @@
         <v>247</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="AO44" s="5"/>
       <c r="AP44" s="5"/>
@@ -4156,7 +4184,7 @@
         <v>248</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="AO45" s="5"/>
       <c r="AP45" s="5"/>
@@ -4216,7 +4244,7 @@
         <v>249</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="AO46" s="5"/>
       <c r="AP46" s="5"/>

--- a/Design/config/WorldConfig.xlsx
+++ b/Design/config/WorldConfig.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="263">
   <si>
     <t>序列</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -452,21 +452,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>101028,101033,101034</t>
-  </si>
-  <si>
     <t>101015</t>
   </si>
   <si>
-    <t>101009,101022</t>
-  </si>
-  <si>
     <t>101007</t>
   </si>
   <si>
-    <t>101028,101040</t>
-  </si>
-  <si>
     <t>101014</t>
   </si>
   <si>
@@ -476,443 +467,479 @@
     <t>101005</t>
   </si>
   <si>
-    <t>101006,101032,101037</t>
-  </si>
-  <si>
     <t>101018</t>
   </si>
   <si>
-    <t>101039,101036</t>
-  </si>
-  <si>
     <t>101016</t>
   </si>
   <si>
-    <t>101035,101039</t>
-  </si>
-  <si>
     <t>100001</t>
   </si>
   <si>
     <t>101039</t>
   </si>
   <si>
-    <t>101035</t>
-  </si>
-  <si>
     <t>101033</t>
   </si>
   <si>
-    <t>101020,101011</t>
-  </si>
-  <si>
     <t>101001</t>
   </si>
   <si>
-    <t>101010,101026,101038</t>
-  </si>
-  <si>
     <t>102012</t>
   </si>
   <si>
+    <t>102015</t>
+  </si>
+  <si>
+    <t>102022,102032</t>
+  </si>
+  <si>
+    <t>102016</t>
+  </si>
+  <si>
+    <t>102006</t>
+  </si>
+  <si>
+    <t>102031,102034</t>
+  </si>
+  <si>
+    <t>102008</t>
+  </si>
+  <si>
+    <t>102010,102023,102042</t>
+  </si>
+  <si>
+    <t>102035</t>
+  </si>
+  <si>
+    <t>100002</t>
+  </si>
+  <si>
+    <t>102001,102003,102029,102037,102041</t>
+  </si>
+  <si>
+    <t>102002</t>
+  </si>
+  <si>
+    <t>102009</t>
+  </si>
+  <si>
+    <t>102011</t>
+  </si>
+  <si>
+    <t>102004</t>
+  </si>
+  <si>
+    <t>102005,102020</t>
+  </si>
+  <si>
+    <t>102007</t>
+  </si>
+  <si>
+    <t>102017,102021</t>
+  </si>
+  <si>
+    <t>103024</t>
+  </si>
+  <si>
+    <t>103003</t>
+  </si>
+  <si>
+    <t>103026</t>
+  </si>
+  <si>
+    <t>103004</t>
+  </si>
+  <si>
+    <t>103012</t>
+  </si>
+  <si>
+    <t>103025,103013,103016,103017</t>
+  </si>
+  <si>
+    <t>100003</t>
+  </si>
+  <si>
+    <t>103008,103010,103011,103014,103028</t>
+  </si>
+  <si>
+    <t>103007</t>
+  </si>
+  <si>
+    <t>103006,103021,103035</t>
+  </si>
+  <si>
+    <t>103005</t>
+  </si>
+  <si>
+    <t>106001</t>
+  </si>
+  <si>
+    <t>106003</t>
+  </si>
+  <si>
+    <t>106006</t>
+  </si>
+  <si>
+    <t>100004</t>
+  </si>
+  <si>
+    <t>104001</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>view位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewPrefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chengdu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beiping</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相邻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldNearIds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>10021,10025,10028</t>
+  </si>
+  <si>
+    <t>10036,10037,10032</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10031,10035,10034,10036</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003,10002,10004,10005,10030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,10004,10005,10009,10015,10016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,10023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10001,10015,10026,10029,10030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10006,10007,10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10005,10007,10008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10007,10010,10016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10009,10016,10039,10041</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10012,10022,10017,10038,10020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10011,10019,10020,10031,10035</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10015,10018,10014,10017,10026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10004,10013,10016,10018,10026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10009,10010,10015,10018,10039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10016,10013,10015,10017,10038,10039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10012,10021,10031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10011,10012,10021,10022</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10022,10019,10020,10027,10028</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10014,10011,10020,10021,10024,10026,10028</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003,10030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10022,10026,10028,10029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10027,10028,10029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10022,10024,10025,10027,10029,10021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004,10024,10026,10028,10030,10025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,10004,10023,10029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10035,10038,10039,10036</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10032,10035,10033,10034</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010,10033,10038,10040,10016,10018</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10042,10039,10041</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010,10040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10041,10040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10012,10032,10033,10031,10036,10038</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10005,10006,10009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004,10015,10022,10024,10029,10013,10014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10013,10026,10017,10022,10024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10018,10033,10035,10039,10011,10017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10011,10014,10013,10018,10038</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10012,10019,10035,10032</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changsha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xinye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xinye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiliang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changsha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>106007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>106002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>106005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>106008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>104010</t>
+  </si>
+  <si>
+    <t>104006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>104009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>104002,104007,104008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101020,101011,101008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101006,101032,101037,101012,101013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101009,101022,101002,101019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101010,101026,101038,101017,101003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>104005</t>
+  </si>
+  <si>
+    <t>104003,104004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>106004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101035,101021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>102028,102024</t>
-  </si>
-  <si>
-    <t>102015</t>
-  </si>
-  <si>
-    <t>102022,102032</t>
-  </si>
-  <si>
-    <t>102016</t>
-  </si>
-  <si>
-    <t>102038</t>
-  </si>
-  <si>
-    <t>102006</t>
-  </si>
-  <si>
-    <t>102031,102034</t>
-  </si>
-  <si>
-    <t>102008</t>
-  </si>
-  <si>
-    <t>102010,102023,102042</t>
-  </si>
-  <si>
-    <t>102035</t>
-  </si>
-  <si>
-    <t>102036</t>
-  </si>
-  <si>
-    <t>100002</t>
-  </si>
-  <si>
-    <t>102001,102003,102029,102037,102041</t>
-  </si>
-  <si>
-    <t>102002</t>
-  </si>
-  <si>
-    <t>102014,102040</t>
-  </si>
-  <si>
-    <t>102009</t>
-  </si>
-  <si>
-    <t>102027</t>
-  </si>
-  <si>
-    <t>102011</t>
-  </si>
-  <si>
-    <t>102013</t>
-  </si>
-  <si>
-    <t>102004</t>
-  </si>
-  <si>
-    <t>102005,102020</t>
-  </si>
-  <si>
-    <t>102007</t>
-  </si>
-  <si>
-    <t>102017,102021</t>
-  </si>
-  <si>
-    <t>103024</t>
-  </si>
-  <si>
-    <t>103019,103038</t>
-  </si>
-  <si>
-    <t>103003</t>
-  </si>
-  <si>
-    <t>103009,103034</t>
-  </si>
-  <si>
-    <t>103026</t>
-  </si>
-  <si>
-    <t>103027,103033</t>
-  </si>
-  <si>
-    <t>103004</t>
-  </si>
-  <si>
-    <t>103018,103032</t>
-  </si>
-  <si>
-    <t>103012</t>
-  </si>
-  <si>
-    <t>103025,103013,103016,103017</t>
-  </si>
-  <si>
-    <t>100003</t>
-  </si>
-  <si>
-    <t>103008,103010,103011,103014,103028</t>
-  </si>
-  <si>
-    <t>103007</t>
-  </si>
-  <si>
-    <t>103006,103021,103035</t>
-  </si>
-  <si>
-    <t>103005</t>
-  </si>
-  <si>
-    <t>103020,103022,103029</t>
-  </si>
-  <si>
-    <t>106001</t>
-  </si>
-  <si>
-    <t>106002,106005</t>
-  </si>
-  <si>
-    <t>106003</t>
-  </si>
-  <si>
-    <t>106007,106008</t>
-  </si>
-  <si>
-    <t>106004</t>
-  </si>
-  <si>
-    <t>106006</t>
-  </si>
-  <si>
-    <t>110001</t>
-  </si>
-  <si>
-    <t>100006</t>
-  </si>
-  <si>
-    <t>106003,106007,106008</t>
-  </si>
-  <si>
-    <t>110005</t>
-  </si>
-  <si>
-    <t>110010</t>
-  </si>
-  <si>
-    <t>100004</t>
-  </si>
-  <si>
-    <t>104002,104007,104008,104009</t>
-  </si>
-  <si>
-    <t>104001</t>
-  </si>
-  <si>
-    <t>104003,104004,104005,104006,104010</t>
-  </si>
-  <si>
-    <t>101003</t>
-  </si>
-  <si>
-    <t>101011</t>
-  </si>
-  <si>
-    <t>110002</t>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>view位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ViewPrefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chengdu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jianye</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>beiping</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相邻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorldNearIds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10006</t>
-  </si>
-  <si>
-    <t>10021,10025,10028</t>
-  </si>
-  <si>
-    <t>10036,10037,10032</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10031,10035,10034,10036</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10003,10002,10004,10005,10030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,10004,10005,10009,10015,10016</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,10023</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,10001,10015,10026,10029,10030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,10006,10007,10001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10005,10007,10008</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,10007,10010,10016</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10009,10016,10039,10041</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10012,10022,10017,10038,10020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10011,10019,10020,10031,10035</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10015,10018,10014,10017,10026</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,10004,10013,10016,10018,10026</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,10009,10010,10015,10018,10039</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10016,10013,10015,10017,10038,10039</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10012,10021,10031</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10011,10012,10021,10022</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10022,10019,10020,10027,10028</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10014,10011,10020,10021,10024,10026,10028</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10003,10030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10022,10026,10028,10029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10027,10028,10029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10022,10024,10025,10027,10029,10021</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10004,10024,10026,10028,10030,10025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,10004,10023,10029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10035,10038,10039,10036</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10032,10035,10033,10034</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10010,10033,10038,10040,10016,10018</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10042,10039,10041</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10010,10040</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10041,10040</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10012,10032,10033,10031,10036,10038</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10005,10006,10009</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10004,10015,10022,10024,10029,10013,10014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10013,10026,10017,10022,10024</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10018,10033,10035,10039,10011,10017</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10011,10014,10013,10018,10038</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10012,10019,10035,10032</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>changsha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xinye</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xinye</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>changan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiliang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>changsha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jianye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101027,101040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101028,101031,101034,101004,101023,101025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101036</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102036,102018,102019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102038,102025,102026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102027,102030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102013,102033</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102014,102040,102039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103027,103033,103001,103002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103020,103022,103029,103015</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103018,103032,103023,103030,103031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103009,103034,103036</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103019,103038,103037</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1313,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1324,7 +1351,7 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="6" width="9.5" customWidth="1"/>
     <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="18" max="18" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.875" customWidth="1"/>
     <col min="19" max="19" width="24.375" customWidth="1"/>
     <col min="20" max="20" width="12.125" customWidth="1"/>
   </cols>
@@ -1340,10 +1367,10 @@
         <v>98</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>14</v>
@@ -1385,10 +1412,10 @@
         <v>125</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.2">
@@ -1447,10 +1474,10 @@
         <v>126</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.2">
@@ -1509,7 +1536,7 @@
         <v>127</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>4</v>
@@ -1626,17 +1653,17 @@
       <c r="P5" s="4">
         <v>60</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>130</v>
+      <c r="Q5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.2">
@@ -1688,17 +1715,17 @@
       <c r="P6" s="4">
         <v>80</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>132</v>
+      <c r="Q6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.2">
@@ -1750,17 +1777,17 @@
       <c r="P7" s="4">
         <v>55</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>134</v>
+      <c r="Q7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="AO7" s="5"/>
       <c r="AP7" s="5"/>
@@ -1814,17 +1841,17 @@
       <c r="P8" s="4">
         <v>70</v>
       </c>
-      <c r="Q8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>136</v>
+      <c r="Q8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="AO8" s="5"/>
       <c r="AP8" s="5"/>
@@ -1878,17 +1905,17 @@
       <c r="P9" s="4">
         <v>65</v>
       </c>
-      <c r="Q9" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>138</v>
+      <c r="Q9" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="AO9" s="5"/>
       <c r="AP9" s="5"/>
@@ -1942,17 +1969,17 @@
       <c r="P10" s="4">
         <v>50</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>140</v>
+      <c r="Q10" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="AO10" s="5"/>
       <c r="AP10" s="5"/>
@@ -2006,17 +2033,17 @@
       <c r="P11" s="4">
         <v>75</v>
       </c>
-      <c r="Q11" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>128</v>
+      <c r="Q11" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
@@ -2070,17 +2097,17 @@
       <c r="P12" s="4">
         <v>45</v>
       </c>
-      <c r="Q12" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>143</v>
+      <c r="Q12" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
@@ -2134,17 +2161,17 @@
       <c r="P13" s="4">
         <v>75</v>
       </c>
-      <c r="Q13" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>145</v>
+      <c r="Q13" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="S13" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="T13" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="AO13" s="5"/>
       <c r="AP13" s="5"/>
@@ -2198,17 +2225,17 @@
       <c r="P14" s="4">
         <v>85</v>
       </c>
-      <c r="Q14" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>147</v>
+      <c r="Q14" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="AO14" s="5"/>
       <c r="AP14" s="5"/>
@@ -2262,17 +2289,17 @@
       <c r="P15" s="4">
         <v>70</v>
       </c>
-      <c r="Q15" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>149</v>
+      <c r="Q15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="AO15" s="5"/>
       <c r="AP15" s="5"/>
@@ -2326,17 +2353,17 @@
       <c r="P16" s="4">
         <v>65</v>
       </c>
-      <c r="Q16" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>151</v>
+      <c r="Q16" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
@@ -2390,17 +2417,17 @@
       <c r="P17" s="4">
         <v>60</v>
       </c>
-      <c r="Q17" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>153</v>
+      <c r="Q17" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="AO17" s="5"/>
       <c r="AP17" s="5"/>
@@ -2454,17 +2481,17 @@
       <c r="P18" s="4">
         <v>65</v>
       </c>
-      <c r="Q18" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>155</v>
+      <c r="Q18" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="AO18" s="5"/>
       <c r="AP18" s="5"/>
@@ -2518,17 +2545,17 @@
       <c r="P19" s="4">
         <v>90</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>157</v>
+      <c r="Q19" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="AO19" s="5"/>
       <c r="AP19" s="5"/>
@@ -2582,17 +2609,17 @@
       <c r="P20" s="4">
         <v>60</v>
       </c>
-      <c r="Q20" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>159</v>
+      <c r="Q20" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="AO20" s="5"/>
       <c r="AP20" s="5"/>
@@ -2646,17 +2673,17 @@
       <c r="P21" s="4">
         <v>80</v>
       </c>
-      <c r="Q21" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>161</v>
+      <c r="Q21" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="AO21" s="5"/>
       <c r="AP21" s="5"/>
@@ -2710,17 +2737,17 @@
       <c r="P22" s="4">
         <v>75</v>
       </c>
-      <c r="Q22" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>163</v>
+      <c r="Q22" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="AO22" s="5"/>
       <c r="AP22" s="5"/>
@@ -2774,17 +2801,17 @@
       <c r="P23" s="4">
         <v>65</v>
       </c>
-      <c r="Q23" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>165</v>
+      <c r="Q23" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>255</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="AO23" s="5"/>
       <c r="AP23" s="5"/>
@@ -2838,17 +2865,17 @@
       <c r="P24" s="4">
         <v>60</v>
       </c>
-      <c r="Q24" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>167</v>
+      <c r="Q24" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="AO24" s="5"/>
       <c r="AP24" s="5"/>
@@ -2902,17 +2929,17 @@
       <c r="P25" s="4">
         <v>70</v>
       </c>
-      <c r="Q25" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>169</v>
+      <c r="Q25" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
@@ -2966,17 +2993,17 @@
       <c r="P26" s="4">
         <v>75</v>
       </c>
-      <c r="Q26" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="R26" s="4" t="s">
-        <v>171</v>
+      <c r="Q26" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="AO26" s="5"/>
       <c r="AP26" s="5"/>
@@ -3030,17 +3057,17 @@
       <c r="P27" s="4">
         <v>55</v>
       </c>
-      <c r="Q27" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>173</v>
+      <c r="Q27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="AO27" s="5"/>
       <c r="AP27" s="5"/>
@@ -3094,17 +3121,17 @@
       <c r="P28" s="4">
         <v>70</v>
       </c>
-      <c r="Q28" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>175</v>
+      <c r="Q28" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="AO28" s="5"/>
       <c r="AP28" s="5"/>
@@ -3158,17 +3185,17 @@
       <c r="P29" s="4">
         <v>60</v>
       </c>
-      <c r="Q29" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>177</v>
+      <c r="Q29" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
@@ -3222,17 +3249,17 @@
       <c r="P30" s="4">
         <v>85</v>
       </c>
-      <c r="Q30" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>179</v>
+      <c r="Q30" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
@@ -3286,17 +3313,17 @@
       <c r="P31" s="4">
         <v>80</v>
       </c>
-      <c r="Q31" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="R31" s="4" t="s">
-        <v>181</v>
+      <c r="Q31" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="S31" s="6" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
@@ -3350,17 +3377,17 @@
       <c r="P32" s="4">
         <v>85</v>
       </c>
-      <c r="Q32" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>183</v>
+      <c r="Q32" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="AO32" s="5"/>
       <c r="AP32" s="5"/>
@@ -3414,17 +3441,17 @@
       <c r="P33" s="4">
         <v>90</v>
       </c>
-      <c r="Q33" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R33" s="4" t="s">
-        <v>185</v>
+      <c r="Q33" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="AO33" s="5"/>
       <c r="AP33" s="5"/>
@@ -3478,17 +3505,17 @@
       <c r="P34" s="4">
         <v>75</v>
       </c>
-      <c r="Q34" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R34" s="4" t="s">
-        <v>187</v>
+      <c r="Q34" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="AO34" s="5"/>
       <c r="AP34" s="5"/>
@@ -3542,17 +3569,17 @@
       <c r="P35" s="4">
         <v>65</v>
       </c>
-      <c r="Q35" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R35" s="4" t="s">
-        <v>189</v>
+      <c r="Q35" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="AO35" s="5"/>
       <c r="AP35" s="5"/>
@@ -3606,17 +3633,15 @@
       <c r="P36" s="4">
         <v>75</v>
       </c>
-      <c r="Q36" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="R36" s="4" t="s">
-        <v>191</v>
-      </c>
+      <c r="Q36" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="R36" s="6"/>
       <c r="S36" s="6" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="AO36" s="5"/>
       <c r="AP36" s="5"/>
@@ -3670,17 +3695,17 @@
       <c r="P37" s="4">
         <v>80</v>
       </c>
-      <c r="Q37" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="R37" s="4" t="s">
-        <v>193</v>
+      <c r="Q37" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="AO37" s="5"/>
       <c r="AP37" s="5"/>
@@ -3734,15 +3759,15 @@
       <c r="P38" s="4">
         <v>85</v>
       </c>
-      <c r="Q38" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R38" s="4"/>
+      <c r="Q38" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="R38" s="6"/>
       <c r="S38" s="6" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="AO38" s="5"/>
       <c r="AP38" s="5"/>
@@ -3796,17 +3821,15 @@
       <c r="P39" s="4">
         <v>90</v>
       </c>
-      <c r="Q39" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="R39" s="4" t="s">
-        <v>196</v>
-      </c>
+      <c r="Q39" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="R39" s="6"/>
       <c r="S39" s="6" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="AO39" s="5"/>
       <c r="AP39" s="5"/>
@@ -3860,17 +3883,15 @@
       <c r="P40" s="4">
         <v>85</v>
       </c>
-      <c r="Q40" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="R40" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="Q40" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="R40" s="6"/>
       <c r="S40" s="6" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="AO40" s="5"/>
       <c r="AP40" s="5"/>
@@ -3924,13 +3945,15 @@
       <c r="P41" s="4">
         <v>75</v>
       </c>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
+      <c r="Q41" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="R41" s="6"/>
       <c r="S41" s="6">
         <v>10034</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="AO41" s="5"/>
       <c r="AP41" s="5"/>
@@ -3984,17 +4007,17 @@
       <c r="P42" s="4">
         <v>95</v>
       </c>
-      <c r="Q42" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="R42" s="4" t="s">
-        <v>200</v>
+      <c r="Q42" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="AO42" s="5"/>
       <c r="AP42" s="5"/>
@@ -4048,17 +4071,17 @@
       <c r="P43" s="4">
         <v>90</v>
       </c>
-      <c r="Q43" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="R43" s="4" t="s">
-        <v>202</v>
+      <c r="Q43" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="AO43" s="5"/>
       <c r="AP43" s="5"/>
@@ -4112,17 +4135,17 @@
       <c r="P44" s="4">
         <v>80</v>
       </c>
-      <c r="Q44" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="R44" s="4" t="s">
-        <v>204</v>
+      <c r="Q44" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="AO44" s="5"/>
       <c r="AP44" s="5"/>
@@ -4176,15 +4199,15 @@
       <c r="P45" s="4">
         <v>85</v>
       </c>
-      <c r="Q45" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="R45" s="4"/>
+      <c r="Q45" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="R45" s="6"/>
       <c r="S45" s="6" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="AO45" s="5"/>
       <c r="AP45" s="5"/>
@@ -4238,13 +4261,15 @@
       <c r="P46" s="4">
         <v>80</v>
       </c>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
+      <c r="Q46" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="R46" s="6"/>
       <c r="S46" s="6" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="AO46" s="5"/>
       <c r="AP46" s="5"/>

--- a/Design/config/WorldConfig.xlsx
+++ b/Design/config/WorldConfig.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$P$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$T$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="252">
   <si>
     <t>序列</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -452,494 +452,468 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>101015</t>
+    <t>102012</t>
+  </si>
+  <si>
+    <t>102015</t>
+  </si>
+  <si>
+    <t>100002</t>
+  </si>
+  <si>
+    <t>102001,102003,102029,102037,102041</t>
+  </si>
+  <si>
+    <t>102002</t>
+  </si>
+  <si>
+    <t>102009</t>
+  </si>
+  <si>
+    <t>102011</t>
+  </si>
+  <si>
+    <t>102004</t>
+  </si>
+  <si>
+    <t>103024</t>
+  </si>
+  <si>
+    <t>103003</t>
+  </si>
+  <si>
+    <t>103026</t>
+  </si>
+  <si>
+    <t>103012</t>
+  </si>
+  <si>
+    <t>100003</t>
+  </si>
+  <si>
+    <t>103008,103010,103011,103014,103028</t>
+  </si>
+  <si>
+    <t>103007</t>
+  </si>
+  <si>
+    <t>103006,103021,103035</t>
+  </si>
+  <si>
+    <t>103005</t>
+  </si>
+  <si>
+    <t>106001</t>
+  </si>
+  <si>
+    <t>106003</t>
+  </si>
+  <si>
+    <t>106006</t>
+  </si>
+  <si>
+    <t>100004</t>
+  </si>
+  <si>
+    <t>104001</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>view位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewPrefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chengdu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beiping</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相邻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldNearIds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>10021,10025,10028</t>
+  </si>
+  <si>
+    <t>10036,10037,10032</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10031,10035,10034,10036</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003,10002,10004,10005,10030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,10004,10005,10009,10015,10016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,10023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10001,10015,10026,10029,10030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10006,10007,10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10005,10007,10008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10007,10010,10016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10009,10016,10039,10041</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10012,10022,10017,10038,10020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10011,10019,10020,10031,10035</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10015,10018,10014,10017,10026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10004,10013,10016,10018,10026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10009,10010,10015,10018,10039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10016,10013,10015,10017,10038,10039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10012,10021,10031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10011,10012,10021,10022</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10022,10019,10020,10027,10028</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10014,10011,10020,10021,10024,10026,10028</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003,10030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10022,10026,10028,10029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10027,10028,10029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10022,10024,10025,10027,10029,10021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004,10024,10026,10028,10030,10025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,10004,10023,10029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10035,10038,10039,10036</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10032,10035,10033,10034</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010,10033,10038,10040,10016,10018</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10042,10039,10041</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010,10040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10041,10040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10012,10032,10033,10031,10036,10038</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10005,10006,10009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004,10015,10022,10024,10029,10013,10014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10013,10026,10017,10022,10024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10018,10033,10035,10039,10011,10017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10011,10014,10013,10018,10038</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10012,10019,10035,10032</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changsha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xinye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xinye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiliang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changsha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>106002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>106005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>104010</t>
+  </si>
+  <si>
+    <t>104002,104007,104008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>104003,104004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>106004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102014,102040,102039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103020,103022,103029,103015</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103009,103034,103036</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103019,103038,103037</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>104006,104005,104009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>106008,106007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100012</t>
+  </si>
+  <si>
+    <t>100013</t>
+  </si>
+  <si>
+    <t>100009</t>
+  </si>
+  <si>
+    <t>102028,102024,102016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101035</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100007</t>
+  </si>
+  <si>
+    <t>103027,103033,103001,103002,103032,103023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103025,103013,103016,103017,103018,103004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102027,102030,102023,102042,102008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100010</t>
+  </si>
+  <si>
+    <t>100008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>101007</t>
-  </si>
-  <si>
-    <t>101014</t>
-  </si>
-  <si>
-    <t>101030,101024</t>
-  </si>
-  <si>
-    <t>101005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101026</t>
   </si>
   <si>
     <t>101018</t>
-  </si>
-  <si>
-    <t>101016</t>
-  </si>
-  <si>
-    <t>100001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101002,101005,101006,101009,101022,101038,101024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101020,101025,101033</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>101039</t>
-  </si>
-  <si>
-    <t>101033</t>
-  </si>
-  <si>
-    <t>101001</t>
-  </si>
-  <si>
-    <t>102012</t>
-  </si>
-  <si>
-    <t>102015</t>
-  </si>
-  <si>
-    <t>102022,102032</t>
-  </si>
-  <si>
-    <t>102016</t>
-  </si>
-  <si>
-    <t>102006</t>
-  </si>
-  <si>
-    <t>102031,102034</t>
-  </si>
-  <si>
-    <t>102008</t>
-  </si>
-  <si>
-    <t>102010,102023,102042</t>
-  </si>
-  <si>
-    <t>102035</t>
-  </si>
-  <si>
-    <t>100002</t>
-  </si>
-  <si>
-    <t>102001,102003,102029,102037,102041</t>
-  </si>
-  <si>
-    <t>102002</t>
-  </si>
-  <si>
-    <t>102009</t>
-  </si>
-  <si>
-    <t>102011</t>
-  </si>
-  <si>
-    <t>102004</t>
-  </si>
-  <si>
-    <t>102005,102020</t>
-  </si>
-  <si>
-    <t>102007</t>
-  </si>
-  <si>
-    <t>102017,102021</t>
-  </si>
-  <si>
-    <t>103024</t>
-  </si>
-  <si>
-    <t>103003</t>
-  </si>
-  <si>
-    <t>103026</t>
-  </si>
-  <si>
-    <t>103004</t>
-  </si>
-  <si>
-    <t>103012</t>
-  </si>
-  <si>
-    <t>103025,103013,103016,103017</t>
-  </si>
-  <si>
-    <t>100003</t>
-  </si>
-  <si>
-    <t>103008,103010,103011,103014,103028</t>
-  </si>
-  <si>
-    <t>103007</t>
-  </si>
-  <si>
-    <t>103006,103021,103035</t>
-  </si>
-  <si>
-    <t>103005</t>
-  </si>
-  <si>
-    <t>106001</t>
-  </si>
-  <si>
-    <t>106003</t>
-  </si>
-  <si>
-    <t>106006</t>
-  </si>
-  <si>
-    <t>100004</t>
-  </si>
-  <si>
-    <t>104001</t>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>view位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ViewPrefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chengdu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jianye</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>beiping</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相邻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorldNearIds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10006</t>
-  </si>
-  <si>
-    <t>10021,10025,10028</t>
-  </si>
-  <si>
-    <t>10036,10037,10032</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10031,10035,10034,10036</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10003,10002,10004,10005,10030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,10004,10005,10009,10015,10016</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,10023</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,10001,10015,10026,10029,10030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,10006,10007,10001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10005,10007,10008</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,10007,10010,10016</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10009,10016,10039,10041</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10012,10022,10017,10038,10020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10011,10019,10020,10031,10035</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10015,10018,10014,10017,10026</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,10004,10013,10016,10018,10026</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,10009,10010,10015,10018,10039</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10016,10013,10015,10017,10038,10039</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10012,10021,10031</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10011,10012,10021,10022</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10022,10019,10020,10027,10028</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10014,10011,10020,10021,10024,10026,10028</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10003,10030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10022,10026,10028,10029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10027,10028,10029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10022,10024,10025,10027,10029,10021</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10004,10024,10026,10028,10030,10025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,10004,10023,10029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10035,10038,10039,10036</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10032,10035,10033,10034</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10010,10033,10038,10040,10016,10018</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10042,10039,10041</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10010,10040</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10041,10040</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10012,10032,10033,10031,10036,10038</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10005,10006,10009</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10004,10015,10022,10024,10029,10013,10014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10013,10026,10017,10022,10024</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10018,10033,10035,10039,10011,10017</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10011,10014,10013,10018,10038</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10012,10019,10035,10032</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>changsha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xinye</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xinye</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>changan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiliang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>changsha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jianye</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>106007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>106002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>106005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>106008</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>104010</t>
-  </si>
-  <si>
-    <t>104006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>104009</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>104002,104007,104008</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101020,101011,101008</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101006,101032,101037,101012,101013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101009,101022,101002,101019</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101010,101026,101038,101017,101003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>104005</t>
-  </si>
-  <si>
-    <t>104003,104004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>106004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101035,101021</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102028,102024</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101027,101040</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101028,101031,101034,101004,101023,101025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101036</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102036,102018,102019</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102038,102025,102026</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102027,102030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102013,102033</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102014,102040,102039</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>103027,103033,103001,103002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>103020,103022,103029,103015</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>103018,103032,103023,103030,103031</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>103009,103034,103036</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>103019,103038,103037</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102005,102020,102017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102013,102033,102007,102031,102010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102022,102032,102038,102006</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1340,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1367,10 +1341,10 @@
         <v>98</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>14</v>
@@ -1412,10 +1386,10 @@
         <v>125</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.2">
@@ -1474,10 +1448,10 @@
         <v>126</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.2">
@@ -1536,7 +1510,7 @@
         <v>127</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>4</v>
@@ -1609,43 +1583,43 @@
         <v>10001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4">
-        <v>630</v>
+        <v>789</v>
       </c>
       <c r="E5" s="4">
-        <v>1442</v>
+        <v>1022</v>
       </c>
       <c r="F5" s="4">
-        <v>351</v>
+        <v>261</v>
       </c>
       <c r="G5" s="4">
-        <v>266</v>
+        <v>177</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="J5" s="4">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="K5" s="4">
-        <v>15000</v>
+        <v>16600</v>
       </c>
       <c r="L5" s="4">
         <v>1800</v>
       </c>
       <c r="M5" s="4">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="N5" s="4">
-        <v>2250</v>
+        <v>3000</v>
       </c>
       <c r="O5" s="4">
         <v>70</v>
@@ -1654,16 +1628,16 @@
         <v>60</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.2">
@@ -1671,61 +1645,61 @@
         <v>10002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4">
-        <v>425</v>
+        <v>987</v>
       </c>
       <c r="E6" s="4">
-        <v>1106</v>
+        <v>698</v>
       </c>
       <c r="F6" s="4">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G6" s="4">
-        <v>382</v>
+        <v>247</v>
       </c>
       <c r="H6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J6" s="4">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="K6" s="4">
-        <v>13300</v>
+        <v>25000</v>
       </c>
       <c r="L6" s="4">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="M6" s="4">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="N6" s="4">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="O6" s="4">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P6" s="4">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.2">
@@ -1733,61 +1707,61 @@
         <v>10003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4">
-        <v>641</v>
+        <v>1085</v>
       </c>
       <c r="E7" s="4">
-        <v>1684</v>
+        <v>618</v>
       </c>
       <c r="F7" s="4">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="G7" s="4">
-        <v>358</v>
+        <v>196</v>
       </c>
       <c r="H7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="4">
-        <v>190</v>
+        <v>275</v>
       </c>
       <c r="J7" s="4">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K7" s="4">
-        <v>14000</v>
+        <v>21600</v>
       </c>
       <c r="L7" s="4">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="M7" s="4">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="N7" s="4">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O7" s="4">
+        <v>75</v>
+      </c>
+      <c r="P7" s="4">
         <v>65</v>
       </c>
-      <c r="P7" s="4">
-        <v>55</v>
-      </c>
       <c r="Q7" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>131</v>
+        <v>251</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="AO7" s="5"/>
       <c r="AP7" s="5"/>
@@ -1797,61 +1771,61 @@
         <v>10004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D8" s="4">
-        <v>669</v>
+        <v>932</v>
       </c>
       <c r="E8" s="4">
-        <v>1254</v>
+        <v>868</v>
       </c>
       <c r="F8" s="4">
-        <v>438</v>
+        <v>325</v>
       </c>
       <c r="G8" s="4">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="H8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="4">
-        <v>275</v>
+        <v>375</v>
       </c>
       <c r="J8" s="4">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K8" s="4">
-        <v>23300</v>
+        <v>28300</v>
       </c>
       <c r="L8" s="4">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M8" s="4">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="N8" s="4">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="O8" s="4">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="P8" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="AO8" s="5"/>
       <c r="AP8" s="5"/>
@@ -1861,61 +1835,61 @@
         <v>10005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4">
-        <v>269</v>
+        <v>670</v>
       </c>
       <c r="E9" s="4">
-        <v>1295</v>
+        <v>851</v>
       </c>
       <c r="F9" s="4">
-        <v>355</v>
+        <v>276</v>
       </c>
       <c r="G9" s="4">
-        <v>344</v>
+        <v>223</v>
       </c>
       <c r="H9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="4">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="J9" s="4">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="K9" s="4">
-        <v>16600</v>
+        <v>23300</v>
       </c>
       <c r="L9" s="4">
-        <v>1900</v>
+        <v>2700</v>
       </c>
       <c r="M9" s="4">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N9" s="4">
-        <v>2750</v>
+        <v>4250</v>
       </c>
       <c r="O9" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="P9" s="4">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>226</v>
+        <v>154</v>
       </c>
       <c r="AO9" s="5"/>
       <c r="AP9" s="5"/>
@@ -1925,61 +1899,61 @@
         <v>10006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D10" s="4">
-        <v>45</v>
+        <v>1441</v>
       </c>
       <c r="E10" s="4">
-        <v>1555</v>
+        <v>494</v>
       </c>
       <c r="F10" s="4">
-        <v>499</v>
+        <v>341</v>
       </c>
       <c r="G10" s="4">
-        <v>345</v>
+        <v>213</v>
       </c>
       <c r="H10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="J10" s="4">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="K10" s="4">
-        <v>11600</v>
+        <v>20000</v>
       </c>
       <c r="L10" s="4">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="M10" s="4">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="N10" s="4">
-        <v>1750</v>
+        <v>3500</v>
       </c>
       <c r="O10" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="P10" s="4">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>226</v>
+        <v>154</v>
       </c>
       <c r="AO10" s="5"/>
       <c r="AP10" s="5"/>
@@ -1989,61 +1963,61 @@
         <v>10007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D11" s="4">
-        <v>40</v>
+        <v>1279</v>
       </c>
       <c r="E11" s="4">
-        <v>1203</v>
+        <v>701</v>
       </c>
       <c r="F11" s="4">
-        <v>378</v>
+        <v>248</v>
       </c>
       <c r="G11" s="4">
-        <v>437</v>
+        <v>193</v>
       </c>
       <c r="H11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="4">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="J11" s="4">
-        <v>375</v>
+        <v>225</v>
       </c>
       <c r="K11" s="4">
-        <v>30000</v>
+        <v>18300</v>
       </c>
       <c r="L11" s="4">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="M11" s="4">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N11" s="4">
-        <v>5000</v>
+        <v>3250</v>
       </c>
       <c r="O11" s="4">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="P11" s="4">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R11" s="6" t="s">
         <v>250</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
@@ -2053,61 +2027,61 @@
         <v>10008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D12" s="4">
-        <v>42</v>
+        <v>1457</v>
       </c>
       <c r="E12" s="4">
-        <v>1646</v>
+        <v>672</v>
       </c>
       <c r="F12" s="4">
-        <v>444</v>
+        <v>286</v>
       </c>
       <c r="G12" s="4">
-        <v>395</v>
+        <v>297</v>
       </c>
       <c r="H12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="4">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="J12" s="4">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="K12" s="4">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="L12" s="4">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="M12" s="4">
-        <v>1300</v>
+        <v>2300</v>
       </c>
       <c r="N12" s="4">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="O12" s="4">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="P12" s="4">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>226</v>
+        <v>154</v>
       </c>
       <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
@@ -2117,61 +2091,61 @@
         <v>10009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="D13" s="4">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="E13" s="4">
-        <v>1004</v>
+        <v>1693</v>
       </c>
       <c r="F13" s="4">
-        <v>506</v>
+        <v>432</v>
       </c>
       <c r="G13" s="4">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="H13" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="4">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="J13" s="4">
         <v>200</v>
       </c>
       <c r="K13" s="4">
-        <v>16000</v>
+        <v>14300</v>
       </c>
       <c r="L13" s="4">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M13" s="4">
         <v>1800</v>
       </c>
       <c r="N13" s="4">
-        <v>3250</v>
+        <v>2100</v>
       </c>
       <c r="O13" s="4">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="P13" s="4">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="AO13" s="5"/>
       <c r="AP13" s="5"/>
@@ -2181,61 +2155,61 @@
         <v>10010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D14" s="4">
-        <v>145</v>
+        <v>1257</v>
       </c>
       <c r="E14" s="4">
-        <v>770</v>
+        <v>1046</v>
       </c>
       <c r="F14" s="4">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="G14" s="4">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="H14" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" s="4">
         <v>250</v>
       </c>
       <c r="J14" s="4">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="K14" s="4">
-        <v>20000</v>
+        <v>20600</v>
       </c>
       <c r="L14" s="4">
         <v>2200</v>
       </c>
       <c r="M14" s="4">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N14" s="4">
-        <v>4250</v>
+        <v>3500</v>
       </c>
       <c r="O14" s="4">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="P14" s="4">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="AO14" s="5"/>
       <c r="AP14" s="5"/>
@@ -2245,61 +2219,61 @@
         <v>10011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D15" s="4">
-        <v>987</v>
+        <v>1505</v>
       </c>
       <c r="E15" s="4">
-        <v>698</v>
+        <v>1194</v>
       </c>
       <c r="F15" s="4">
-        <v>305</v>
+        <v>506</v>
       </c>
       <c r="G15" s="4">
-        <v>247</v>
+        <v>413</v>
       </c>
       <c r="H15" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="4">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="J15" s="4">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="K15" s="4">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L15" s="4">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="M15" s="4">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="N15" s="4">
-        <v>4500</v>
+        <v>3250</v>
       </c>
       <c r="O15" s="4">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="P15" s="4">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="AO15" s="5"/>
       <c r="AP15" s="5"/>
@@ -2309,61 +2283,61 @@
         <v>10012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="D16" s="4">
-        <v>1085</v>
+        <v>1617</v>
       </c>
       <c r="E16" s="4">
-        <v>618</v>
+        <v>831</v>
       </c>
       <c r="F16" s="4">
-        <v>398</v>
+        <v>314</v>
       </c>
       <c r="G16" s="4">
-        <v>196</v>
+        <v>404</v>
       </c>
       <c r="H16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="4">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="J16" s="4">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="K16" s="4">
-        <v>21600</v>
+        <v>27300</v>
       </c>
       <c r="L16" s="4">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="M16" s="4">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="N16" s="4">
-        <v>4000</v>
+        <v>4750</v>
       </c>
       <c r="O16" s="4">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="P16" s="4">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>141</v>
+        <v>234</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
@@ -2373,61 +2347,61 @@
         <v>10013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="D17" s="4">
-        <v>789</v>
+        <v>1469</v>
       </c>
       <c r="E17" s="4">
-        <v>1022</v>
+        <v>925</v>
       </c>
       <c r="F17" s="4">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="G17" s="4">
-        <v>177</v>
+        <v>498</v>
       </c>
       <c r="H17" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="4">
-        <v>225</v>
+        <v>360</v>
       </c>
       <c r="J17" s="4">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="K17" s="4">
-        <v>16600</v>
+        <v>29300</v>
       </c>
       <c r="L17" s="4">
-        <v>1800</v>
+        <v>3400</v>
       </c>
       <c r="M17" s="4">
-        <v>1700</v>
+        <v>3100</v>
       </c>
       <c r="N17" s="4">
-        <v>3000</v>
+        <v>5250</v>
       </c>
       <c r="O17" s="4">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="P17" s="4">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>254</v>
+        <v>141</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="AO17" s="5"/>
       <c r="AP17" s="5"/>
@@ -2437,61 +2411,61 @@
         <v>10014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="D18" s="4">
-        <v>1027</v>
+        <v>1111</v>
       </c>
       <c r="E18" s="4">
-        <v>940</v>
+        <v>1265</v>
       </c>
       <c r="F18" s="4">
-        <v>273</v>
+        <v>452</v>
       </c>
       <c r="G18" s="4">
-        <v>231</v>
+        <v>503</v>
       </c>
       <c r="H18" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="4">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="J18" s="4">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="K18" s="4">
-        <v>22600</v>
+        <v>23300</v>
       </c>
       <c r="L18" s="4">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M18" s="4">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="N18" s="4">
-        <v>3750</v>
+        <v>4500</v>
       </c>
       <c r="O18" s="4">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="P18" s="4">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="R18" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="R18" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="S18" s="6" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="AO18" s="5"/>
       <c r="AP18" s="5"/>
@@ -2501,61 +2475,61 @@
         <v>10015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="D19" s="4">
-        <v>640</v>
+        <v>928</v>
       </c>
       <c r="E19" s="4">
-        <v>1080</v>
+        <v>1440</v>
       </c>
       <c r="F19" s="4">
-        <v>305</v>
+        <v>379</v>
       </c>
       <c r="G19" s="4">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="H19" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" s="4">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="J19" s="4">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="K19" s="4">
-        <v>26600</v>
+        <v>25000</v>
       </c>
       <c r="L19" s="4">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M19" s="4">
         <v>2800</v>
       </c>
       <c r="N19" s="4">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="O19" s="4">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P19" s="4">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>146</v>
+        <v>216</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="AO19" s="5"/>
       <c r="AP19" s="5"/>
@@ -2565,61 +2539,61 @@
         <v>10016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D20" s="4">
-        <v>493</v>
+        <v>1228</v>
       </c>
       <c r="E20" s="4">
-        <v>909</v>
+        <v>514</v>
       </c>
       <c r="F20" s="4">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G20" s="4">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="H20" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I20" s="4">
+        <v>240</v>
+      </c>
+      <c r="J20" s="4">
+        <v>260</v>
+      </c>
+      <c r="K20" s="4">
+        <v>19300</v>
+      </c>
+      <c r="L20" s="4">
+        <v>2200</v>
+      </c>
+      <c r="M20" s="4">
+        <v>2300</v>
+      </c>
+      <c r="N20" s="4">
+        <v>3500</v>
+      </c>
+      <c r="O20" s="4">
+        <v>70</v>
+      </c>
+      <c r="P20" s="4">
+        <v>65</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="S20" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="J20" s="4">
-        <v>190</v>
-      </c>
-      <c r="K20" s="4">
-        <v>15000</v>
-      </c>
-      <c r="L20" s="4">
-        <v>1600</v>
-      </c>
-      <c r="M20" s="4">
-        <v>1600</v>
-      </c>
-      <c r="N20" s="4">
-        <v>2500</v>
-      </c>
-      <c r="O20" s="4">
-        <v>65</v>
-      </c>
-      <c r="P20" s="4">
-        <v>60</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="S20" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="T20" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="AO20" s="5"/>
       <c r="AP20" s="5"/>
@@ -2629,61 +2603,61 @@
         <v>10017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D21" s="4">
-        <v>932</v>
+        <v>1229</v>
       </c>
       <c r="E21" s="4">
-        <v>868</v>
+        <v>325</v>
       </c>
       <c r="F21" s="4">
-        <v>325</v>
+        <v>273</v>
       </c>
       <c r="G21" s="4">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H21" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I21" s="4">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="J21" s="4">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="K21" s="4">
-        <v>28300</v>
+        <v>24000</v>
       </c>
       <c r="L21" s="4">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M21" s="4">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="N21" s="4">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="O21" s="4">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="P21" s="4">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="AO21" s="5"/>
       <c r="AP21" s="5"/>
@@ -2693,61 +2667,61 @@
         <v>10018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D22" s="4">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="E22" s="4">
-        <v>851</v>
+        <v>235</v>
       </c>
       <c r="F22" s="4">
-        <v>276</v>
+        <v>498</v>
       </c>
       <c r="G22" s="4">
-        <v>223</v>
+        <v>384</v>
       </c>
       <c r="H22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I22" s="4">
-        <v>290</v>
+        <v>225</v>
       </c>
       <c r="J22" s="4">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="K22" s="4">
-        <v>23300</v>
+        <v>16600</v>
       </c>
       <c r="L22" s="4">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="M22" s="4">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="N22" s="4">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="O22" s="4">
+        <v>75</v>
+      </c>
+      <c r="P22" s="4">
         <v>80</v>
       </c>
-      <c r="P22" s="4">
-        <v>75</v>
-      </c>
       <c r="Q22" s="6" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="AO22" s="5"/>
       <c r="AP22" s="5"/>
@@ -2757,61 +2731,61 @@
         <v>10019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D23" s="4">
-        <v>1441</v>
+        <v>902</v>
       </c>
       <c r="E23" s="4">
-        <v>494</v>
+        <v>356</v>
       </c>
       <c r="F23" s="4">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G23" s="4">
-        <v>213</v>
+        <v>357</v>
       </c>
       <c r="H23" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I23" s="4">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="J23" s="4">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="K23" s="4">
-        <v>20000</v>
+        <v>28300</v>
       </c>
       <c r="L23" s="4">
-        <v>2300</v>
+        <v>3300</v>
       </c>
       <c r="M23" s="4">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="N23" s="4">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="O23" s="4">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="P23" s="4">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="AO23" s="5"/>
       <c r="AP23" s="5"/>
@@ -2821,61 +2795,61 @@
         <v>10020</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="D24" s="4">
-        <v>1279</v>
+        <v>704</v>
       </c>
       <c r="E24" s="4">
-        <v>701</v>
+        <v>613</v>
       </c>
       <c r="F24" s="4">
-        <v>248</v>
+        <v>328</v>
       </c>
       <c r="G24" s="4">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="H24" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I24" s="4">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="J24" s="4">
-        <v>225</v>
+        <v>375</v>
       </c>
       <c r="K24" s="4">
-        <v>18300</v>
+        <v>31600</v>
       </c>
       <c r="L24" s="4">
-        <v>2100</v>
+        <v>4000</v>
       </c>
       <c r="M24" s="4">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N24" s="4">
-        <v>3250</v>
+        <v>6000</v>
       </c>
       <c r="O24" s="4">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="P24" s="4">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="AO24" s="5"/>
       <c r="AP24" s="5"/>
@@ -2885,61 +2859,61 @@
         <v>10021</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D25" s="4">
-        <v>1457</v>
+        <v>370</v>
       </c>
       <c r="E25" s="4">
-        <v>672</v>
+        <v>575</v>
       </c>
       <c r="F25" s="4">
-        <v>286</v>
+        <v>415</v>
       </c>
       <c r="G25" s="4">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="H25" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I25" s="4">
-        <v>275</v>
+        <v>390</v>
       </c>
       <c r="J25" s="4">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="K25" s="4">
-        <v>21600</v>
+        <v>30000</v>
       </c>
       <c r="L25" s="4">
-        <v>2500</v>
+        <v>3800</v>
       </c>
       <c r="M25" s="4">
-        <v>2300</v>
+        <v>3200</v>
       </c>
       <c r="N25" s="4">
-        <v>4000</v>
+        <v>5750</v>
       </c>
       <c r="O25" s="4">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="P25" s="4">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
@@ -2949,61 +2923,61 @@
         <v>10022</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="4">
+        <v>155</v>
+      </c>
+      <c r="E26" s="4">
+        <v>412</v>
+      </c>
+      <c r="F26" s="4">
+        <v>411</v>
+      </c>
+      <c r="G26" s="4">
+        <v>335</v>
+      </c>
+      <c r="H26" s="4">
+        <v>5</v>
+      </c>
+      <c r="I26" s="4">
+        <v>200</v>
+      </c>
+      <c r="J26" s="4">
+        <v>210</v>
+      </c>
+      <c r="K26" s="4">
+        <v>16000</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1800</v>
+      </c>
+      <c r="M26" s="4">
+        <v>1900</v>
+      </c>
+      <c r="N26" s="4">
+        <v>3500</v>
+      </c>
+      <c r="O26" s="4">
+        <v>75</v>
+      </c>
+      <c r="P26" s="4">
         <v>80</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1264</v>
-      </c>
-      <c r="E26" s="4">
-        <v>876</v>
-      </c>
-      <c r="F26" s="4">
-        <v>297</v>
-      </c>
-      <c r="G26" s="4">
-        <v>248</v>
-      </c>
-      <c r="H26" s="4">
-        <v>2</v>
-      </c>
-      <c r="I26" s="4">
-        <v>290</v>
-      </c>
-      <c r="J26" s="4">
-        <v>300</v>
-      </c>
-      <c r="K26" s="4">
-        <v>24000</v>
-      </c>
-      <c r="L26" s="4">
-        <v>2600</v>
-      </c>
-      <c r="M26" s="4">
-        <v>2700</v>
-      </c>
-      <c r="N26" s="4">
-        <v>4250</v>
-      </c>
-      <c r="O26" s="4">
-        <v>80</v>
-      </c>
-      <c r="P26" s="4">
-        <v>75</v>
-      </c>
       <c r="Q26" s="6" t="s">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="AO26" s="5"/>
       <c r="AP26" s="5"/>
@@ -3013,61 +2987,61 @@
         <v>10023</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D27" s="4">
-        <v>837</v>
+        <v>42</v>
       </c>
       <c r="E27" s="4">
-        <v>1693</v>
+        <v>623</v>
       </c>
       <c r="F27" s="4">
-        <v>432</v>
+        <v>322</v>
       </c>
       <c r="G27" s="4">
-        <v>348</v>
+        <v>253</v>
       </c>
       <c r="H27" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I27" s="4">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="J27" s="4">
         <v>200</v>
       </c>
       <c r="K27" s="4">
-        <v>14300</v>
+        <v>16600</v>
       </c>
       <c r="L27" s="4">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M27" s="4">
         <v>1800</v>
       </c>
       <c r="N27" s="4">
-        <v>2100</v>
+        <v>3750</v>
       </c>
       <c r="O27" s="4">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="P27" s="4">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="S27" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="T27" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="T27" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="AO27" s="5"/>
       <c r="AP27" s="5"/>
@@ -3077,61 +3051,61 @@
         <v>10024</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D28" s="4">
-        <v>1257</v>
+        <v>42</v>
       </c>
       <c r="E28" s="4">
-        <v>1046</v>
+        <v>253</v>
       </c>
       <c r="F28" s="4">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="G28" s="4">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="H28" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I28" s="4">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="J28" s="4">
-        <v>275</v>
+        <v>160</v>
       </c>
       <c r="K28" s="4">
-        <v>20600</v>
+        <v>11600</v>
       </c>
       <c r="L28" s="4">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="M28" s="4">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="N28" s="4">
-        <v>3500</v>
+        <v>3250</v>
       </c>
       <c r="O28" s="4">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P28" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="AO28" s="5"/>
       <c r="AP28" s="5"/>
@@ -3141,43 +3115,43 @@
         <v>10025</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D29" s="4">
-        <v>1505</v>
+        <v>630</v>
       </c>
       <c r="E29" s="4">
-        <v>1194</v>
+        <v>1442</v>
       </c>
       <c r="F29" s="4">
-        <v>506</v>
+        <v>351</v>
       </c>
       <c r="G29" s="4">
-        <v>413</v>
+        <v>266</v>
       </c>
       <c r="H29" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I29" s="4">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="J29" s="4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K29" s="4">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L29" s="4">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="M29" s="4">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="N29" s="4">
-        <v>3250</v>
+        <v>2250</v>
       </c>
       <c r="O29" s="4">
         <v>70</v>
@@ -3186,16 +3160,16 @@
         <v>60</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
@@ -3205,61 +3179,57 @@
         <v>10026</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="D30" s="4">
-        <v>949</v>
+        <v>641</v>
       </c>
       <c r="E30" s="4">
-        <v>1115</v>
+        <v>1684</v>
       </c>
       <c r="F30" s="4">
-        <v>377</v>
+        <v>314</v>
       </c>
       <c r="G30" s="4">
-        <v>215</v>
+        <v>358</v>
       </c>
       <c r="H30" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I30" s="4">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="J30" s="4">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="K30" s="4">
-        <v>21600</v>
+        <v>14000</v>
       </c>
       <c r="L30" s="4">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="M30" s="4">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="N30" s="4">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="O30" s="4">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P30" s="4">
-        <v>85</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>260</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
       <c r="S30" s="6" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
@@ -3269,61 +3239,57 @@
         <v>10027</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D31" s="4">
-        <v>1617</v>
+        <v>669</v>
       </c>
       <c r="E31" s="4">
-        <v>831</v>
+        <v>1254</v>
       </c>
       <c r="F31" s="4">
-        <v>314</v>
+        <v>438</v>
       </c>
       <c r="G31" s="4">
-        <v>404</v>
+        <v>243</v>
       </c>
       <c r="H31" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I31" s="4">
-        <v>340</v>
+        <v>275</v>
       </c>
       <c r="J31" s="4">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="K31" s="4">
-        <v>27300</v>
+        <v>23300</v>
       </c>
       <c r="L31" s="4">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="M31" s="4">
-        <v>2900</v>
+        <v>2200</v>
       </c>
       <c r="N31" s="4">
-        <v>4750</v>
+        <v>4000</v>
       </c>
       <c r="O31" s="4">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="P31" s="4">
-        <v>80</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="R31" s="6" t="s">
-        <v>162</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
       <c r="S31" s="6" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>226</v>
+        <v>154</v>
       </c>
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
@@ -3333,61 +3299,59 @@
         <v>10028</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="4">
+        <v>640</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1080</v>
+      </c>
+      <c r="F32" s="4">
+        <v>305</v>
+      </c>
+      <c r="G32" s="4">
+        <v>241</v>
+      </c>
+      <c r="H32" s="4">
+        <v>7</v>
+      </c>
+      <c r="I32" s="4">
+        <v>325</v>
+      </c>
+      <c r="J32" s="4">
+        <v>300</v>
+      </c>
+      <c r="K32" s="4">
+        <v>26600</v>
+      </c>
+      <c r="L32" s="4">
+        <v>3000</v>
+      </c>
+      <c r="M32" s="4">
+        <v>2800</v>
+      </c>
+      <c r="N32" s="4">
+        <v>4750</v>
+      </c>
+      <c r="O32" s="4">
+        <v>85</v>
+      </c>
+      <c r="P32" s="4">
         <v>90</v>
       </c>
-      <c r="D32" s="4">
-        <v>1469</v>
-      </c>
-      <c r="E32" s="4">
-        <v>925</v>
-      </c>
-      <c r="F32" s="4">
-        <v>277</v>
-      </c>
-      <c r="G32" s="4">
-        <v>498</v>
-      </c>
-      <c r="H32" s="4">
-        <v>3</v>
-      </c>
-      <c r="I32" s="4">
-        <v>360</v>
-      </c>
-      <c r="J32" s="4">
-        <v>340</v>
-      </c>
-      <c r="K32" s="4">
-        <v>29300</v>
-      </c>
-      <c r="L32" s="4">
-        <v>3400</v>
-      </c>
-      <c r="M32" s="4">
-        <v>3100</v>
-      </c>
-      <c r="N32" s="4">
-        <v>5250</v>
-      </c>
-      <c r="O32" s="4">
-        <v>90</v>
-      </c>
-      <c r="P32" s="4">
-        <v>85</v>
-      </c>
       <c r="Q32" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>164</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="R32" s="6"/>
       <c r="S32" s="6" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="AO32" s="5"/>
       <c r="AP32" s="5"/>
@@ -3397,61 +3361,61 @@
         <v>10029</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D33" s="4">
-        <v>1111</v>
+        <v>949</v>
       </c>
       <c r="E33" s="4">
-        <v>1265</v>
+        <v>1115</v>
       </c>
       <c r="F33" s="4">
-        <v>452</v>
+        <v>377</v>
       </c>
       <c r="G33" s="4">
-        <v>503</v>
+        <v>215</v>
       </c>
       <c r="H33" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I33" s="4">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="J33" s="4">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="K33" s="4">
-        <v>23300</v>
+        <v>21600</v>
       </c>
       <c r="L33" s="4">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M33" s="4">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="N33" s="4">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O33" s="4">
+        <v>80</v>
+      </c>
+      <c r="P33" s="4">
         <v>85</v>
       </c>
-      <c r="P33" s="4">
-        <v>90</v>
-      </c>
       <c r="Q33" s="6" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="AO33" s="5"/>
       <c r="AP33" s="5"/>
@@ -3461,61 +3425,59 @@
         <v>10030</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="D34" s="4">
-        <v>928</v>
+        <v>425</v>
       </c>
       <c r="E34" s="4">
-        <v>1440</v>
+        <v>1106</v>
       </c>
       <c r="F34" s="4">
-        <v>379</v>
+        <v>311</v>
       </c>
       <c r="G34" s="4">
-        <v>323</v>
+        <v>382</v>
       </c>
       <c r="H34" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I34" s="4">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="J34" s="4">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="K34" s="4">
-        <v>25000</v>
+        <v>13300</v>
       </c>
       <c r="L34" s="4">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="M34" s="4">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="N34" s="4">
-        <v>4250</v>
+        <v>3000</v>
       </c>
       <c r="O34" s="4">
+        <v>75</v>
+      </c>
+      <c r="P34" s="4">
         <v>80</v>
       </c>
-      <c r="P34" s="4">
-        <v>75</v>
-      </c>
       <c r="Q34" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="R34" s="6" t="s">
-        <v>259</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="R34" s="6"/>
       <c r="S34" s="6" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="AO34" s="5"/>
       <c r="AP34" s="5"/>
@@ -3525,43 +3487,43 @@
         <v>10031</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D35" s="4">
-        <v>1228</v>
+        <v>269</v>
       </c>
       <c r="E35" s="4">
-        <v>514</v>
+        <v>1295</v>
       </c>
       <c r="F35" s="4">
-        <v>229</v>
+        <v>355</v>
       </c>
       <c r="G35" s="4">
-        <v>173</v>
+        <v>344</v>
       </c>
       <c r="H35" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I35" s="4">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="J35" s="4">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="K35" s="4">
-        <v>19300</v>
+        <v>16600</v>
       </c>
       <c r="L35" s="4">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="M35" s="4">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="N35" s="4">
-        <v>3500</v>
+        <v>2750</v>
       </c>
       <c r="O35" s="4">
         <v>70</v>
@@ -3570,16 +3532,16 @@
         <v>65</v>
       </c>
       <c r="Q35" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="S35" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R35" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="S35" s="6" t="s">
-        <v>223</v>
-      </c>
       <c r="T35" s="4" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="AO35" s="5"/>
       <c r="AP35" s="5"/>
@@ -3589,59 +3551,59 @@
         <v>10032</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D36" s="4">
-        <v>1229</v>
+        <v>45</v>
       </c>
       <c r="E36" s="4">
-        <v>325</v>
+        <v>1555</v>
       </c>
       <c r="F36" s="4">
-        <v>273</v>
+        <v>499</v>
       </c>
       <c r="G36" s="4">
-        <v>211</v>
+        <v>345</v>
       </c>
       <c r="H36" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I36" s="4">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="J36" s="4">
-        <v>290</v>
+        <v>175</v>
       </c>
       <c r="K36" s="4">
-        <v>24000</v>
+        <v>11600</v>
       </c>
       <c r="L36" s="4">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="M36" s="4">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="N36" s="4">
-        <v>4500</v>
+        <v>1750</v>
       </c>
       <c r="O36" s="4">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="P36" s="4">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c r="R36" s="6"/>
       <c r="S36" s="6" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="AO36" s="5"/>
       <c r="AP36" s="5"/>
@@ -3651,61 +3613,61 @@
         <v>10033</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D37" s="4">
-        <v>679</v>
+        <v>40</v>
       </c>
       <c r="E37" s="4">
-        <v>235</v>
+        <v>1203</v>
       </c>
       <c r="F37" s="4">
-        <v>498</v>
+        <v>378</v>
       </c>
       <c r="G37" s="4">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="H37" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I37" s="4">
-        <v>225</v>
+        <v>350</v>
       </c>
       <c r="J37" s="4">
-        <v>200</v>
+        <v>375</v>
       </c>
       <c r="K37" s="4">
-        <v>16600</v>
+        <v>30000</v>
       </c>
       <c r="L37" s="4">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M37" s="4">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="N37" s="4">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="O37" s="4">
+        <v>85</v>
+      </c>
+      <c r="P37" s="4">
         <v>75</v>
       </c>
-      <c r="P37" s="4">
-        <v>80</v>
-      </c>
       <c r="Q37" s="6" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="R37" s="6" t="s">
         <v>246</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="AO37" s="5"/>
       <c r="AP37" s="5"/>
@@ -3715,59 +3677,61 @@
         <v>10034</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D38" s="4">
-        <v>1351</v>
+        <v>42</v>
       </c>
       <c r="E38" s="4">
-        <v>54</v>
+        <v>1646</v>
       </c>
       <c r="F38" s="4">
-        <v>288</v>
+        <v>444</v>
       </c>
       <c r="G38" s="4">
-        <v>317</v>
+        <v>395</v>
       </c>
       <c r="H38" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I38" s="4">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="J38" s="4">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="K38" s="4">
-        <v>17300</v>
+        <v>10000</v>
       </c>
       <c r="L38" s="4">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="M38" s="4">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="N38" s="4">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="O38" s="4">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="P38" s="4">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="R38" s="6"/>
+        <v>231</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>230</v>
+      </c>
       <c r="S38" s="6" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="AO38" s="5"/>
       <c r="AP38" s="5"/>
@@ -3777,59 +3741,59 @@
         <v>10035</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="D39" s="4">
-        <v>902</v>
+        <v>43</v>
       </c>
       <c r="E39" s="4">
-        <v>356</v>
+        <v>1004</v>
       </c>
       <c r="F39" s="4">
-        <v>336</v>
+        <v>506</v>
       </c>
       <c r="G39" s="4">
-        <v>357</v>
+        <v>274</v>
       </c>
       <c r="H39" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I39" s="4">
-        <v>350</v>
+        <v>225</v>
       </c>
       <c r="J39" s="4">
-        <v>325</v>
+        <v>200</v>
       </c>
       <c r="K39" s="4">
-        <v>28300</v>
+        <v>16000</v>
       </c>
       <c r="L39" s="4">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="M39" s="4">
-        <v>2900</v>
+        <v>1800</v>
       </c>
       <c r="N39" s="4">
-        <v>5500</v>
+        <v>3250</v>
       </c>
       <c r="O39" s="4">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="P39" s="4">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="R39" s="6"/>
       <c r="S39" s="6" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="AO39" s="5"/>
       <c r="AP39" s="5"/>
@@ -3839,59 +3803,57 @@
         <v>10036</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="D40" s="4">
-        <v>980</v>
+        <v>493</v>
       </c>
       <c r="E40" s="4">
-        <v>105</v>
+        <v>909</v>
       </c>
       <c r="F40" s="4">
-        <v>397</v>
+        <v>241</v>
       </c>
       <c r="G40" s="4">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="H40" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I40" s="4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="J40" s="4">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="K40" s="4">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L40" s="4">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="M40" s="4">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="N40" s="4">
-        <v>4250</v>
+        <v>2500</v>
       </c>
       <c r="O40" s="4">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P40" s="4">
-        <v>85</v>
-      </c>
-      <c r="Q40" s="6" t="s">
-        <v>234</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="AO40" s="5"/>
       <c r="AP40" s="5"/>
@@ -3901,59 +3863,59 @@
         <v>10037</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="D41" s="4">
-        <v>1558</v>
+        <v>145</v>
       </c>
       <c r="E41" s="4">
-        <v>13</v>
+        <v>770</v>
       </c>
       <c r="F41" s="4">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="G41" s="4">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="H41" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I41" s="4">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="J41" s="4">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="K41" s="4">
-        <v>13300</v>
+        <v>20000</v>
       </c>
       <c r="L41" s="4">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="M41" s="4">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="N41" s="4">
-        <v>3000</v>
+        <v>4250</v>
       </c>
       <c r="O41" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="P41" s="4">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R41" s="6"/>
-      <c r="S41" s="6">
-        <v>10034</v>
+      <c r="S41" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="AO41" s="5"/>
       <c r="AP41" s="5"/>
@@ -3963,61 +3925,57 @@
         <v>10038</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D42" s="4">
-        <v>704</v>
+        <v>1027</v>
       </c>
       <c r="E42" s="4">
-        <v>613</v>
+        <v>940</v>
       </c>
       <c r="F42" s="4">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="G42" s="4">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="H42" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I42" s="4">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="J42" s="4">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="K42" s="4">
-        <v>31600</v>
+        <v>22600</v>
       </c>
       <c r="L42" s="4">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="M42" s="4">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="N42" s="4">
-        <v>6000</v>
+        <v>3750</v>
       </c>
       <c r="O42" s="4">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="P42" s="4">
-        <v>95</v>
-      </c>
-      <c r="Q42" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="R42" s="6" t="s">
-        <v>238</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
       <c r="S42" s="6" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="AO42" s="5"/>
       <c r="AP42" s="5"/>
@@ -4027,61 +3985,59 @@
         <v>10039</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D43" s="4">
-        <v>370</v>
+        <v>1264</v>
       </c>
       <c r="E43" s="4">
-        <v>575</v>
+        <v>876</v>
       </c>
       <c r="F43" s="4">
-        <v>415</v>
+        <v>297</v>
       </c>
       <c r="G43" s="4">
-        <v>351</v>
+        <v>248</v>
       </c>
       <c r="H43" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I43" s="4">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="J43" s="4">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K43" s="4">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L43" s="4">
-        <v>3800</v>
+        <v>2600</v>
       </c>
       <c r="M43" s="4">
-        <v>3200</v>
+        <v>2700</v>
       </c>
       <c r="N43" s="4">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="O43" s="4">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="P43" s="4">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="R43" s="6" t="s">
-        <v>244</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="R43" s="6"/>
       <c r="S43" s="6" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="AO43" s="5"/>
       <c r="AP43" s="5"/>
@@ -4091,61 +4047,59 @@
         <v>10040</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D44" s="4">
-        <v>155</v>
+        <v>1351</v>
       </c>
       <c r="E44" s="4">
-        <v>412</v>
+        <v>54</v>
       </c>
       <c r="F44" s="4">
-        <v>411</v>
+        <v>288</v>
       </c>
       <c r="G44" s="4">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="H44" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I44" s="4">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="J44" s="4">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="K44" s="4">
-        <v>16000</v>
+        <v>17300</v>
       </c>
       <c r="L44" s="4">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="M44" s="4">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="N44" s="4">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O44" s="4">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P44" s="4">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="R44" s="6" t="s">
-        <v>236</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="R44" s="6"/>
       <c r="S44" s="6" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="AO44" s="5"/>
       <c r="AP44" s="5"/>
@@ -4155,59 +4109,57 @@
         <v>10041</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="D45" s="4">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="E45" s="4">
-        <v>623</v>
+        <v>105</v>
       </c>
       <c r="F45" s="4">
-        <v>322</v>
+        <v>397</v>
       </c>
       <c r="G45" s="4">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="H45" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I45" s="4">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="J45" s="4">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K45" s="4">
-        <v>16600</v>
+        <v>20000</v>
       </c>
       <c r="L45" s="4">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="M45" s="4">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="N45" s="4">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="O45" s="4">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P45" s="4">
         <v>85</v>
       </c>
-      <c r="Q45" s="6" t="s">
-        <v>243</v>
-      </c>
+      <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="AO45" s="5"/>
       <c r="AP45" s="5"/>
@@ -4217,59 +4169,59 @@
         <v>10042</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D46" s="4">
-        <v>42</v>
+        <v>1558</v>
       </c>
       <c r="E46" s="4">
-        <v>253</v>
+        <v>13</v>
       </c>
       <c r="F46" s="4">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="G46" s="4">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="H46" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I46" s="4">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="J46" s="4">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K46" s="4">
-        <v>11600</v>
+        <v>13300</v>
       </c>
       <c r="L46" s="4">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M46" s="4">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="N46" s="4">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="O46" s="4">
         <v>70</v>
       </c>
       <c r="P46" s="4">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="R46" s="6"/>
-      <c r="S46" s="6" t="s">
-        <v>216</v>
+      <c r="S46" s="6">
+        <v>10034</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="AO46" s="5"/>
       <c r="AP46" s="5"/>
@@ -4283,6 +4235,11 @@
       <c r="AP48" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:T4">
+    <sortState ref="A5:T46">
+      <sortCondition ref="H4"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A5:Q43">
     <sortCondition ref="A41"/>
   </sortState>

--- a/Design/config/WorldConfig.xlsx
+++ b/Design/config/WorldConfig.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$T$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$R$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="181">
   <si>
     <t>序列</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -121,799 +121,546 @@
     <t>xinye</t>
   </si>
   <si>
+    <t>runan</t>
+  </si>
+  <si>
+    <t>汝南</t>
+  </si>
+  <si>
+    <t>xiangyang</t>
+  </si>
+  <si>
+    <t>襄阳</t>
+  </si>
+  <si>
+    <t>shangyong</t>
+  </si>
+  <si>
+    <t>上庸</t>
+  </si>
+  <si>
+    <t>yongan</t>
+  </si>
+  <si>
+    <t>永安</t>
+  </si>
+  <si>
+    <t>lingling</t>
+  </si>
+  <si>
+    <t>零陵</t>
+  </si>
+  <si>
+    <t>guiyang</t>
+  </si>
+  <si>
+    <t>桂阳</t>
+  </si>
+  <si>
+    <t>xuchang</t>
+  </si>
+  <si>
+    <t>许昌</t>
+  </si>
+  <si>
+    <t>wan</t>
+  </si>
+  <si>
+    <t>宛</t>
+  </si>
+  <si>
+    <t>lujiang</t>
+  </si>
+  <si>
+    <t>庐江</t>
+  </si>
+  <si>
+    <t>kuaiji</t>
+  </si>
+  <si>
+    <t>会稽</t>
+  </si>
+  <si>
+    <t>jiangling</t>
+  </si>
+  <si>
+    <t>江陵</t>
+  </si>
+  <si>
+    <t>jiangzhou</t>
+  </si>
+  <si>
+    <t>江州</t>
+  </si>
+  <si>
+    <t>jianning</t>
+  </si>
+  <si>
+    <t>建宁</t>
+  </si>
+  <si>
+    <t>chengdu</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>yunnan</t>
+  </si>
+  <si>
+    <t>云南</t>
+  </si>
+  <si>
+    <t>zitong</t>
+  </si>
+  <si>
+    <t>hanzhong</t>
+  </si>
+  <si>
+    <t>汉中</t>
+  </si>
+  <si>
+    <t>changan</t>
+  </si>
+  <si>
+    <t>长安</t>
+  </si>
+  <si>
+    <t>anding</t>
+  </si>
+  <si>
+    <t>安定</t>
+  </si>
+  <si>
+    <t>tianshui</t>
+  </si>
+  <si>
+    <t>天水</t>
+  </si>
+  <si>
+    <t>wuwei</t>
+  </si>
+  <si>
+    <t>武威</t>
+  </si>
+  <si>
+    <t>jinyang</t>
+  </si>
+  <si>
+    <t>晋阳</t>
+  </si>
+  <si>
+    <t>beiping</t>
+  </si>
+  <si>
+    <t>北平</t>
+  </si>
+  <si>
+    <t>beihai</t>
+  </si>
+  <si>
+    <t>北海</t>
+  </si>
+  <si>
+    <t>xiaopei</t>
+  </si>
+  <si>
+    <t>小沛</t>
+  </si>
+  <si>
+    <t>xiapi</t>
+  </si>
+  <si>
+    <t>下邳</t>
+  </si>
+  <si>
+    <t>shouchun</t>
+  </si>
+  <si>
+    <t>寿春</t>
+  </si>
+  <si>
+    <t>jiangxia</t>
+  </si>
+  <si>
+    <t>江夏</t>
+  </si>
+  <si>
+    <t>wu</t>
+  </si>
+  <si>
+    <t>吴</t>
+  </si>
+  <si>
+    <t>ye</t>
+  </si>
+  <si>
+    <t>邺</t>
+  </si>
+  <si>
+    <t>ji</t>
+  </si>
+  <si>
+    <t>jianye</t>
+  </si>
+  <si>
+    <t>建业</t>
+  </si>
+  <si>
+    <t>caisang</t>
+  </si>
+  <si>
+    <t>柴桑</t>
+  </si>
+  <si>
+    <t>changsha</t>
+  </si>
+  <si>
+    <t>长沙</t>
+  </si>
+  <si>
+    <t>xiangping</t>
+  </si>
+  <si>
+    <t>Cname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>force</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业(0-999)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业(0-999)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArchGold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArchFood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArchPeople</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soldier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Secure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梓潼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>view位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewPrefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chengdu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beiping</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相邻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldNearIds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>10021,10025,10028</t>
+  </si>
+  <si>
+    <t>10036,10037,10032</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10031,10035,10034,10036</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003,10002,10004,10005,10030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,10004,10005,10009,10015,10016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,10023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10001,10015,10026,10029,10030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10006,10007,10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10005,10007,10008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10007,10010,10016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10009,10016,10039,10041</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10012,10022,10017,10038,10020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10011,10019,10020,10031,10035</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10015,10018,10014,10017,10026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10004,10013,10016,10018,10026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10009,10010,10015,10018,10039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10016,10013,10015,10017,10038,10039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10012,10021,10031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10011,10012,10021,10022</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10022,10019,10020,10027,10028</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10014,10011,10020,10021,10024,10026,10028</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003,10030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10022,10026,10028,10029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10027,10028,10029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10022,10024,10025,10027,10029,10021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004,10024,10026,10028,10030,10025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,10004,10023,10029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10035,10038,10039,10036</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10032,10035,10033,10034</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010,10033,10038,10040,10016,10018</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10042,10039,10041</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010,10040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10041,10040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10012,10032,10033,10031,10036,10038</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10005,10006,10009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004,10015,10022,10024,10029,10013,10014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10013,10026,10017,10022,10024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10018,10033,10035,10039,10011,10017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10011,10014,10013,10018,10038</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10012,10019,10035,10032</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changsha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xinye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xinye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiliang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changsha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>襄平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>新野</t>
-  </si>
-  <si>
-    <t>runan</t>
-  </si>
-  <si>
-    <t>汝南</t>
-  </si>
-  <si>
-    <t>xiangyang</t>
-  </si>
-  <si>
-    <t>襄阳</t>
-  </si>
-  <si>
-    <t>shangyong</t>
-  </si>
-  <si>
-    <t>上庸</t>
-  </si>
-  <si>
-    <t>yongan</t>
-  </si>
-  <si>
-    <t>永安</t>
-  </si>
-  <si>
-    <t>lingling</t>
-  </si>
-  <si>
-    <t>零陵</t>
-  </si>
-  <si>
-    <t>guiyang</t>
-  </si>
-  <si>
-    <t>桂阳</t>
-  </si>
-  <si>
-    <t>xuchang</t>
-  </si>
-  <si>
-    <t>许昌</t>
-  </si>
-  <si>
-    <t>wan</t>
-  </si>
-  <si>
-    <t>宛</t>
-  </si>
-  <si>
-    <t>lujiang</t>
-  </si>
-  <si>
-    <t>庐江</t>
-  </si>
-  <si>
-    <t>kuaiji</t>
-  </si>
-  <si>
-    <t>会稽</t>
-  </si>
-  <si>
-    <t>jiangling</t>
-  </si>
-  <si>
-    <t>江陵</t>
-  </si>
-  <si>
-    <t>jiangzhou</t>
-  </si>
-  <si>
-    <t>江州</t>
-  </si>
-  <si>
-    <t>jianning</t>
-  </si>
-  <si>
-    <t>建宁</t>
-  </si>
-  <si>
-    <t>chengdu</t>
-  </si>
-  <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>yunnan</t>
-  </si>
-  <si>
-    <t>云南</t>
-  </si>
-  <si>
-    <t>zitong</t>
-  </si>
-  <si>
-    <t>hanzhong</t>
-  </si>
-  <si>
-    <t>汉中</t>
-  </si>
-  <si>
-    <t>changan</t>
-  </si>
-  <si>
-    <t>长安</t>
-  </si>
-  <si>
-    <t>anding</t>
-  </si>
-  <si>
-    <t>安定</t>
-  </si>
-  <si>
-    <t>tianshui</t>
-  </si>
-  <si>
-    <t>天水</t>
-  </si>
-  <si>
-    <t>wuwei</t>
-  </si>
-  <si>
-    <t>武威</t>
-  </si>
-  <si>
-    <t>jinyang</t>
-  </si>
-  <si>
-    <t>晋阳</t>
-  </si>
-  <si>
-    <t>beiping</t>
-  </si>
-  <si>
-    <t>北平</t>
-  </si>
-  <si>
-    <t>beihai</t>
-  </si>
-  <si>
-    <t>北海</t>
-  </si>
-  <si>
-    <t>xiaopei</t>
-  </si>
-  <si>
-    <t>小沛</t>
-  </si>
-  <si>
-    <t>xiapi</t>
-  </si>
-  <si>
-    <t>下邳</t>
-  </si>
-  <si>
-    <t>shouchun</t>
-  </si>
-  <si>
-    <t>寿春</t>
-  </si>
-  <si>
-    <t>jiangxia</t>
-  </si>
-  <si>
-    <t>江夏</t>
-  </si>
-  <si>
-    <t>wu</t>
-  </si>
-  <si>
-    <t>吴</t>
-  </si>
-  <si>
-    <t>ye</t>
-  </si>
-  <si>
-    <t>邺</t>
-  </si>
-  <si>
-    <t>ji</t>
-  </si>
-  <si>
-    <t>jianye</t>
-  </si>
-  <si>
-    <t>建业</t>
-  </si>
-  <si>
-    <t>caisang</t>
-  </si>
-  <si>
-    <t>柴桑</t>
-  </si>
-  <si>
-    <t>changsha</t>
-  </si>
-  <si>
-    <t>长沙</t>
-  </si>
-  <si>
-    <t>xiangping</t>
-  </si>
-  <si>
-    <t>襄平</t>
-  </si>
-  <si>
-    <t>Cname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Width</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Height</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>force</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForceId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业(0-999)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业(0-999)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>食物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>士兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>治安</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArchGold</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArchFood</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArchPeople</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gold</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Food</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soldier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Secure</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wall</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梓潼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>太守</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leader</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Members</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102012</t>
-  </si>
-  <si>
-    <t>102015</t>
-  </si>
-  <si>
-    <t>100002</t>
-  </si>
-  <si>
-    <t>102001,102003,102029,102037,102041</t>
-  </si>
-  <si>
-    <t>102002</t>
-  </si>
-  <si>
-    <t>102009</t>
-  </si>
-  <si>
-    <t>102011</t>
-  </si>
-  <si>
-    <t>102004</t>
-  </si>
-  <si>
-    <t>103024</t>
-  </si>
-  <si>
-    <t>103003</t>
-  </si>
-  <si>
-    <t>103026</t>
-  </si>
-  <si>
-    <t>103012</t>
-  </si>
-  <si>
-    <t>100003</t>
-  </si>
-  <si>
-    <t>103008,103010,103011,103014,103028</t>
-  </si>
-  <si>
-    <t>103007</t>
-  </si>
-  <si>
-    <t>103006,103021,103035</t>
-  </si>
-  <si>
-    <t>103005</t>
-  </si>
-  <si>
-    <t>106001</t>
-  </si>
-  <si>
-    <t>106003</t>
-  </si>
-  <si>
-    <t>106006</t>
-  </si>
-  <si>
-    <t>100004</t>
-  </si>
-  <si>
-    <t>104001</t>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>view位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ViewPrefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chengdu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jianye</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>beiping</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相邻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorldNearIds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10006</t>
-  </si>
-  <si>
-    <t>10021,10025,10028</t>
-  </si>
-  <si>
-    <t>10036,10037,10032</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10031,10035,10034,10036</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10003,10002,10004,10005,10030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,10004,10005,10009,10015,10016</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,10023</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,10001,10015,10026,10029,10030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,10006,10007,10001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10005,10007,10008</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,10007,10010,10016</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10009,10016,10039,10041</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10012,10022,10017,10038,10020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10011,10019,10020,10031,10035</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10015,10018,10014,10017,10026</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,10004,10013,10016,10018,10026</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,10009,10010,10015,10018,10039</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10016,10013,10015,10017,10038,10039</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10012,10021,10031</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10011,10012,10021,10022</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10022,10019,10020,10027,10028</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10014,10011,10020,10021,10024,10026,10028</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10003,10030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10022,10026,10028,10029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10027,10028,10029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10022,10024,10025,10027,10029,10021</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10004,10024,10026,10028,10030,10025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,10004,10023,10029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10035,10038,10039,10036</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10032,10035,10033,10034</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10010,10033,10038,10040,10016,10018</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10042,10039,10041</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10010,10040</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10041,10040</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10012,10032,10033,10031,10036,10038</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10005,10006,10009</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10004,10015,10022,10024,10029,10013,10014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10013,10026,10017,10022,10024</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10018,10033,10035,10039,10011,10017</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10011,10014,10013,10018,10038</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10012,10019,10035,10032</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>changsha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xinye</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xinye</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>changan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiliang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>changsha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jianye</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>106002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>106005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>104010</t>
-  </si>
-  <si>
-    <t>104002,104007,104008</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>104003,104004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>106004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102014,102040,102039</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>103020,103022,103029,103015</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>103009,103034,103036</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>103019,103038,103037</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>104006,104005,104009</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101011</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100011</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>106008,106007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100012</t>
-  </si>
-  <si>
-    <t>100013</t>
-  </si>
-  <si>
-    <t>100009</t>
-  </si>
-  <si>
-    <t>102028,102024,102016</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101035</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101016</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100007</t>
-  </si>
-  <si>
-    <t>103027,103033,103001,103002,103032,103023</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>103025,103013,103016,103017,103018,103004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102027,102030,102023,102042,102008</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100010</t>
-  </si>
-  <si>
-    <t>100008</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101008</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101031</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101026</t>
-  </si>
-  <si>
-    <t>101018</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101023</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101002,101005,101006,101009,101022,101038,101024</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101020,101025,101033</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101039</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102005,102020,102017</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102013,102033,102007,102031,102010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102022,102032,102038,102006</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1312,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP48"/>
+  <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1325,12 +1072,11 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="6" width="9.5" customWidth="1"/>
     <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="18" max="18" width="28.875" customWidth="1"/>
-    <col min="19" max="19" width="24.375" customWidth="1"/>
-    <col min="20" max="20" width="12.125" customWidth="1"/>
+    <col min="17" max="17" width="24.375" customWidth="1"/>
+    <col min="18" max="18" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1338,13 +1084,13 @@
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>14</v>
@@ -1353,46 +1099,40 @@
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="Q1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1400,61 +1140,55 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="Q2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1504,19 +1238,13 @@
         <v>10</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="T3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1566,19 +1294,13 @@
         <v>5</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>10001</v>
       </c>
@@ -1586,7 +1308,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="D5" s="4">
         <v>789</v>
@@ -1628,19 +1350,13 @@
         <v>60</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>10002</v>
       </c>
@@ -1690,19 +1406,13 @@
         <v>70</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>10003</v>
       </c>
@@ -1752,29 +1462,23 @@
         <v>65</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>10004</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D8" s="4">
         <v>932</v>
@@ -1816,29 +1520,23 @@
         <v>80</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>10005</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D9" s="4">
         <v>670</v>
@@ -1880,29 +1578,23 @@
         <v>75</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>10006</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D10" s="4">
         <v>1441</v>
@@ -1944,29 +1636,23 @@
         <v>65</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10007</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D11" s="4">
         <v>1279</v>
@@ -2008,29 +1694,23 @@
         <v>60</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10008</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D12" s="4">
         <v>1457</v>
@@ -2072,29 +1752,23 @@
         <v>70</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10009</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D13" s="4">
         <v>837</v>
@@ -2136,29 +1810,23 @@
         <v>55</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>10010</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D14" s="4">
         <v>1257</v>
@@ -2200,29 +1868,23 @@
         <v>70</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="T14" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="R14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10011</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D15" s="4">
         <v>1505</v>
@@ -2264,29 +1926,23 @@
         <v>60</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="T15" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="R15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>10012</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D16" s="4">
         <v>1617</v>
@@ -2328,29 +1984,23 @@
         <v>80</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>10013</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D17" s="4">
         <v>1469</v>
@@ -2392,29 +2042,23 @@
         <v>85</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="S17" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>10014</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D18" s="4">
         <v>1111</v>
@@ -2456,29 +2100,23 @@
         <v>90</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="S18" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="5"/>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>10015</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D19" s="4">
         <v>928</v>
@@ -2520,21 +2158,15 @@
         <v>75</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="R19" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="S19" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="AO19" s="5"/>
-      <c r="AP19" s="5"/>
-    </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>10016</v>
       </c>
@@ -2584,21 +2216,15 @@
         <v>65</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="S20" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="T20" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="AO20" s="5"/>
-      <c r="AP20" s="5"/>
-    </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>10017</v>
       </c>
@@ -2648,29 +2274,23 @@
         <v>75</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="S21" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="T21" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>10018</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D22" s="4">
         <v>679</v>
@@ -2712,29 +2332,23 @@
         <v>80</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="R22" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="S22" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="AO22" s="5"/>
-      <c r="AP22" s="5"/>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>10019</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D23" s="4">
         <v>902</v>
@@ -2776,21 +2390,15 @@
         <v>90</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="R23" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="S23" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO23" s="5"/>
-      <c r="AP23" s="5"/>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>10020</v>
       </c>
@@ -2840,29 +2448,23 @@
         <v>95</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="S24" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="T24" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
-    </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>10021</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D25" s="4">
         <v>370</v>
@@ -2904,29 +2506,23 @@
         <v>90</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="R25" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10022</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D26" s="4">
         <v>155</v>
@@ -2968,29 +2564,23 @@
         <v>80</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="R26" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="S26" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="T26" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="AO26" s="5"/>
-      <c r="AP26" s="5"/>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>10023</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="D27" s="4">
         <v>42</v>
@@ -3032,29 +2622,23 @@
         <v>85</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="R27" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="S27" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="T27" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="AO27" s="5"/>
-      <c r="AP27" s="5"/>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>10024</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D28" s="4">
         <v>42</v>
@@ -3096,21 +2680,15 @@
         <v>80</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="R28" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="S28" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="T28" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>10025</v>
       </c>
@@ -3160,29 +2738,23 @@
         <v>60</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="R29" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>10026</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D30" s="4">
         <v>641</v>
@@ -3223,26 +2795,24 @@
       <c r="P30" s="4">
         <v>55</v>
       </c>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="T30" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="AO30" s="5"/>
-      <c r="AP30" s="5"/>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="Q30" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>10027</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D31" s="4">
         <v>669</v>
@@ -3283,26 +2853,24 @@
       <c r="P31" s="4">
         <v>70</v>
       </c>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="T31" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO31" s="5"/>
-      <c r="AP31" s="5"/>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="Q31" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>10028</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D32" s="4">
         <v>640</v>
@@ -3344,27 +2912,23 @@
         <v>90</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="T32" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AO32" s="5"/>
-      <c r="AP32" s="5"/>
-    </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>10029</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D33" s="4">
         <v>949</v>
@@ -3406,29 +2970,23 @@
         <v>85</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="R33" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="S33" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="T33" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
-    </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>10030</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="D34" s="4">
         <v>425</v>
@@ -3470,27 +3028,23 @@
         <v>80</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="T34" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="AO34" s="5"/>
-      <c r="AP34" s="5"/>
-    </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>10031</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D35" s="4">
         <v>269</v>
@@ -3532,29 +3086,23 @@
         <v>65</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="R35" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="S35" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="T35" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AO35" s="5"/>
-      <c r="AP35" s="5"/>
-    </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>10032</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D36" s="4">
         <v>45</v>
@@ -3596,27 +3144,23 @@
         <v>50</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="T36" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AO36" s="5"/>
-      <c r="AP36" s="5"/>
-    </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>10033</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D37" s="4">
         <v>40</v>
@@ -3658,29 +3202,23 @@
         <v>75</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="R37" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="S37" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="T37" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO37" s="5"/>
-      <c r="AP37" s="5"/>
-    </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>10034</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D38" s="4">
         <v>42</v>
@@ -3722,29 +3260,23 @@
         <v>45</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="R38" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="S38" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="T38" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AO38" s="5"/>
-      <c r="AP38" s="5"/>
-    </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>10035</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="4">
         <v>43</v>
@@ -3786,27 +3318,23 @@
         <v>75</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="T39" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AO39" s="5"/>
-      <c r="AP39" s="5"/>
-    </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>10036</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="D40" s="4">
         <v>493</v>
@@ -3847,26 +3375,24 @@
       <c r="P40" s="4">
         <v>60</v>
       </c>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="T40" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AO40" s="5"/>
-      <c r="AP40" s="5"/>
-    </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="Q40" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>10037</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D41" s="4">
         <v>145</v>
@@ -3908,27 +3434,23 @@
         <v>85</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="T41" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO41" s="5"/>
-      <c r="AP41" s="5"/>
-    </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>10038</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D42" s="4">
         <v>1027</v>
@@ -3969,26 +3491,24 @@
       <c r="P42" s="4">
         <v>65</v>
       </c>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="T42" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="AO42" s="5"/>
-      <c r="AP42" s="5"/>
-    </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="Q42" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="5"/>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>10039</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D43" s="4">
         <v>1264</v>
@@ -4030,27 +3550,23 @@
         <v>75</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="T43" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO43" s="5"/>
-      <c r="AP43" s="5"/>
-    </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>10040</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D44" s="4">
         <v>1351</v>
@@ -4092,27 +3608,23 @@
         <v>85</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="T44" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO44" s="5"/>
-      <c r="AP44" s="5"/>
-    </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>10041</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D45" s="4">
         <v>980</v>
@@ -4153,26 +3665,24 @@
       <c r="P45" s="4">
         <v>85</v>
       </c>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="T45" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO45" s="5"/>
-      <c r="AP45" s="5"/>
-    </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="Q45" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>10042</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="D46" s="4">
         <v>1558</v>
@@ -4213,29 +3723,25 @@
       <c r="P46" s="4">
         <v>75</v>
       </c>
-      <c r="Q46" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6">
+      <c r="Q46" s="6">
         <v>10034</v>
       </c>
-      <c r="T46" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO46" s="5"/>
-      <c r="AP46" s="5"/>
-    </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AO47" s="5"/>
-      <c r="AP47" s="5"/>
-    </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AO48" s="5"/>
-      <c r="AP48" s="5"/>
+      <c r="R46" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="5"/>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AM47" s="5"/>
+      <c r="AN47" s="5"/>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:T4">
+  <autoFilter ref="A4:R4">
     <sortState ref="A5:T46">
       <sortCondition ref="H4"/>
     </sortState>
